--- a/my_models/res1.xlsx
+++ b/my_models/res1.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>CHB</t>
+  </si>
+  <si>
+    <t>pCC</t>
+  </si>
+  <si>
+    <t>pDCC</t>
+  </si>
   <si>
     <t>death_hcc</t>
   </si>
@@ -26,9 +38,6 @@
   </si>
   <si>
     <t>death_cc</t>
-  </si>
-  <si>
-    <t>cured</t>
   </si>
   <si>
     <t>pHCCI</t>
@@ -55,10 +64,37 @@
     <t>sHCCIV</t>
   </si>
   <si>
+    <t>sCC</t>
+  </si>
+  <si>
+    <t>sDCC</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DCC</t>
+  </si>
+  <si>
     <t>tCC</t>
   </si>
   <si>
     <t>tDCC</t>
+  </si>
+  <si>
+    <t>cured</t>
+  </si>
+  <si>
+    <t>cHCCI</t>
+  </si>
+  <si>
+    <t>cHCCII</t>
+  </si>
+  <si>
+    <t>cHCCIII</t>
+  </si>
+  <si>
+    <t>cHCCIV</t>
   </si>
 </sst>
 </file>
@@ -416,65 +452,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -515,38 +587,77 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>0</v>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
+        <v>99960.00415777779</v>
+      </c>
+      <c r="C3">
+        <v>1.38362</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>36.39</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2.222222222222222</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -562,41 +673,80 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>0</v>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71.24061324512999</v>
+        <v>99921.550401613</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.741548125536385</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.023936626</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.658562611788042</v>
+        <v>0</v>
       </c>
       <c r="G4">
+        <v>71.24061324513001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3.658562612572839</v>
+      </c>
+      <c r="K4">
         <v>0.6444444444444443</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
@@ -609,3859 +759,7096 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.1404933333333333</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>99888.10651658294</v>
+      </c>
+      <c r="C5">
+        <v>4.074409549449269</v>
+      </c>
+      <c r="D5">
+        <v>0.06703563925142839</v>
+      </c>
+      <c r="E5">
+        <v>0.001249118725197317</v>
+      </c>
+      <c r="F5">
         <v>0.00208911704056</v>
       </c>
-      <c r="B5">
+      <c r="G5">
         <v>101.0836377346686</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4.587792944780765</v>
-      </c>
-      <c r="G5">
-        <v>1.291434787485199</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4.58779294764383</v>
+      </c>
+      <c r="K5">
+        <v>1.29143478771279</v>
+      </c>
+      <c r="L5">
         <v>0.2577777777777777</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001675061515901691</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>0.01012955139742862</v>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.000653561889321631</v>
+      </c>
+      <c r="U5">
+        <v>4.163729083991059E-05</v>
+      </c>
+      <c r="V5">
+        <v>0.001675063424594104</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.3696639044343067</v>
+      </c>
+      <c r="Z5">
+        <v>0.1560225777777778</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>99858.31734384205</v>
+      </c>
+      <c r="C6">
+        <v>5.382807214934478</v>
+      </c>
+      <c r="D6">
+        <v>0.1253992067136263</v>
+      </c>
+      <c r="E6">
+        <v>0.004584042088897913</v>
+      </c>
+      <c r="F6">
+        <v>0.01012955139816641</v>
+      </c>
+      <c r="G6">
         <v>127.2738363929171</v>
       </c>
-      <c r="C6">
-        <v>7.078331377196007E-06</v>
-      </c>
-      <c r="D6">
-        <v>4.873644125306472E-05</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>5.189983457110367</v>
-      </c>
-      <c r="G6">
-        <v>1.792320727104294</v>
-      </c>
       <c r="H6">
-        <v>0.5624626986118573</v>
+        <v>7.0783394427848E-06</v>
       </c>
       <c r="I6">
+        <v>4.873649678707033E-05</v>
+      </c>
+      <c r="J6">
+        <v>5.189983463604485</v>
+      </c>
+      <c r="K6">
+        <v>1.792320728015977</v>
+      </c>
+      <c r="L6">
+        <v>0.5624626987028938</v>
+      </c>
+      <c r="M6">
         <v>0.1031111111111111</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
-        <v>0.006716396387280589</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001115988849913907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>0.02959853374985904</v>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.002003317884271778</v>
+      </c>
+      <c r="U6">
+        <v>0.0002051067036779589</v>
+      </c>
+      <c r="V6">
+        <v>0.006716404040426733</v>
+      </c>
+      <c r="W6">
+        <v>0.0001115990121556429</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.6541195837694361</v>
+      </c>
+      <c r="Z6">
+        <v>0.4660996200174154</v>
+      </c>
+      <c r="AA6">
+        <v>0.1087103022222222</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>150.4696741697275</v>
+        <v>99831.52411683649</v>
       </c>
       <c r="C7">
-        <v>5.254832534537941E-05</v>
+        <v>6.667295062290316</v>
       </c>
       <c r="D7">
-        <v>0.0002250179634849472</v>
+        <v>0.1958457954076704</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.01052875886810357</v>
       </c>
       <c r="F7">
-        <v>5.581418357512099</v>
+        <v>0.02959853375491331</v>
       </c>
       <c r="G7">
-        <v>2.146143347851572</v>
+        <v>150.4696741697274</v>
       </c>
       <c r="H7">
-        <v>0.8170729440759376</v>
+        <v>5.254838522282389E-05</v>
       </c>
       <c r="I7">
-        <v>0.2662055759211874</v>
+        <v>0.0002250182198867499</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.581418369299706</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.146143350060942</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8170729444568195</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.266205575957602</v>
       </c>
       <c r="N7">
-        <v>0.01647765112226438</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0005384893335248636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>0.07109627004709275</v>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.003954165258376301</v>
+      </c>
+      <c r="U7">
+        <v>0.000559461645252175</v>
+      </c>
+      <c r="V7">
+        <v>0.01647766989802022</v>
+      </c>
+      <c r="W7">
+        <v>0.000538489947118781</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0.9723621258570029</v>
+      </c>
+      <c r="Z7">
+        <v>0.8923207246154715</v>
+      </c>
+      <c r="AA7">
+        <v>0.3437437332176299</v>
+      </c>
+      <c r="AB7">
+        <v>0.06186666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>99810.15439819491</v>
+      </c>
+      <c r="C8">
+        <v>8.198089237642245</v>
+      </c>
+      <c r="D8">
+        <v>0.2757842854254762</v>
+      </c>
+      <c r="E8">
+        <v>0.01937345671779457</v>
+      </c>
+      <c r="F8">
+        <v>0.07109627006832944</v>
+      </c>
+      <c r="G8">
         <v>167.9732915985651</v>
       </c>
-      <c r="C8">
-        <v>0.0001988131833500651</v>
-      </c>
-      <c r="D8">
-        <v>0.0006277170158985946</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>5.837369483306777</v>
-      </c>
-      <c r="G8">
-        <v>2.386331224372316</v>
-      </c>
       <c r="H8">
-        <v>1.003981053650446</v>
+        <v>0.0001988134098919778</v>
       </c>
       <c r="I8">
-        <v>0.433264742161391</v>
+        <v>0.0006277177311627591</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.837369502069643</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.38633122858106</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.003981054602031</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4332647423283033</v>
       </c>
       <c r="N8">
-        <v>0.03195146032261498</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.001537406003631449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>0.139200136833634</v>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.006394296182948617</v>
+      </c>
+      <c r="U8">
+        <v>0.001154679112426924</v>
+      </c>
+      <c r="V8">
+        <v>0.03195149673014542</v>
+      </c>
+      <c r="W8">
+        <v>0.001537407755458457</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1.309395143904241</v>
+      </c>
+      <c r="Z8">
+        <v>1.395322479046511</v>
+      </c>
+      <c r="AA8">
+        <v>0.6805758672450429</v>
+      </c>
+      <c r="AB8">
+        <v>0.2198625279916278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9">
+        <v>99787.98528311508</v>
+      </c>
+      <c r="C9">
+        <v>9.700916915842086</v>
+      </c>
+      <c r="D9">
+        <v>0.3677521238092661</v>
+      </c>
+      <c r="E9">
+        <v>0.03123349510193285</v>
+      </c>
+      <c r="F9">
+        <v>0.1392001368968254</v>
+      </c>
+      <c r="G9">
         <v>186.277979668279</v>
       </c>
-      <c r="C9">
-        <v>0.0005411619791360903</v>
-      </c>
-      <c r="D9">
-        <v>0.001369114797187385</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>6.006123946282792</v>
-      </c>
-      <c r="G9">
-        <v>2.546458004275276</v>
-      </c>
       <c r="H9">
-        <v>1.133337143066582</v>
+        <v>0.0005411625957731083</v>
       </c>
       <c r="I9">
-        <v>0.5748188770679359</v>
+        <v>0.001369116357246638</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.006123973311993</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.546458011222027</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.133337144919553</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.5748188775153041</v>
       </c>
       <c r="N9">
-        <v>0.05381549618095389</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.003384296217768705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>0.2392317857323046</v>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.009222790578339989</v>
+      </c>
+      <c r="U9">
+        <v>0.002023232797243486</v>
+      </c>
+      <c r="V9">
+        <v>0.05381555750152498</v>
+      </c>
+      <c r="W9">
+        <v>0.003384300074058567</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1.657110602366805</v>
+      </c>
+      <c r="Z9">
+        <v>1.947112698041554</v>
+      </c>
+      <c r="AA9">
+        <v>1.088636630292574</v>
+      </c>
+      <c r="AB9">
+        <v>0.47368044742532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>204.2450231135497</v>
+        <v>99766.15528204269</v>
       </c>
       <c r="C10">
-        <v>0.001206619303438922</v>
+        <v>11.1763545625989</v>
       </c>
       <c r="D10">
-        <v>0.00256988441441526</v>
+        <v>0.4690930031520705</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.04634271803528694</v>
       </c>
       <c r="F10">
-        <v>6.11912906016772</v>
+        <v>0.2392317858863222</v>
       </c>
       <c r="G10">
-        <v>2.652684700600596</v>
+        <v>204.2450231135491</v>
       </c>
       <c r="H10">
-        <v>1.220429406753103</v>
+        <v>0.001206620678340065</v>
       </c>
       <c r="I10">
-        <v>0.6831589372070218</v>
+        <v>0.002569887342701103</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.119129096456446</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.652684710924028</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.220429409861816</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.6831589381270767</v>
       </c>
       <c r="N10">
-        <v>0.08282083510611052</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.006349877181661487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>0.3749709329424071</v>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.01248262637198932</v>
+      </c>
+      <c r="U10">
+        <v>0.003191710010257992</v>
+      </c>
+      <c r="V10">
+        <v>0.08282092824499813</v>
+      </c>
+      <c r="W10">
+        <v>0.006349884417106362</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>2.00983508090198</v>
+      </c>
+      <c r="Z10">
+        <v>2.527414613875027</v>
+      </c>
+      <c r="AA10">
+        <v>1.542056158171521</v>
+      </c>
+      <c r="AB10">
+        <v>0.8053431087123548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>223.4462783893795</v>
+        <v>99743.09295625926</v>
       </c>
       <c r="C11">
-        <v>0.00235244772438782</v>
+        <v>12.62473476389917</v>
       </c>
       <c r="D11">
-        <v>0.004364799602726982</v>
+        <v>0.57763302458682</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06476455033829465</v>
       </c>
       <c r="F11">
-        <v>6.19653366989051</v>
+        <v>0.3749709332689897</v>
       </c>
       <c r="G11">
-        <v>2.723422278602285</v>
+        <v>223.4462783893783</v>
       </c>
       <c r="H11">
-        <v>1.278415996506339</v>
+        <v>0.002352450399709028</v>
       </c>
       <c r="I11">
-        <v>0.7613038937055776</v>
+        <v>0.004364804540397739</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.196533716227152</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.723422292818745</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.278416001189332</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.7613038953169077</v>
       </c>
       <c r="N11">
-        <v>0.1195178980588303</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.0107048411008977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>0.5488526414840474</v>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.01611231507305566</v>
+      </c>
+      <c r="U11">
+        <v>0.004683321640104808</v>
+      </c>
+      <c r="V11">
+        <v>0.119518029304315</v>
+      </c>
+      <c r="W11">
+        <v>0.01070485321655139</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>2.36393308908104</v>
+      </c>
+      <c r="Z11">
+        <v>3.122612624792009</v>
+      </c>
+      <c r="AA11">
+        <v>2.021967342680921</v>
+      </c>
+      <c r="AB11">
+        <v>1.192737342978427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>245.4744625462322</v>
+        <v>99717.20625010405</v>
       </c>
       <c r="C12">
-        <v>0.00416557142624252</v>
+        <v>14.04628663985177</v>
       </c>
       <c r="D12">
-        <v>0.00689608511353268</v>
+        <v>0.6915928155014361</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.0864396559318916</v>
       </c>
       <c r="F12">
-        <v>6.251280018160797</v>
+        <v>0.54885264210753</v>
       </c>
       <c r="G12">
-        <v>2.77109543781391</v>
+        <v>245.4744625462292</v>
       </c>
       <c r="H12">
-        <v>1.317001393312023</v>
+        <v>0.004165576134099226</v>
       </c>
       <c r="I12">
-        <v>0.8157198784563302</v>
+        <v>0.00689609280583582</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.251280075186471</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.771095456336413</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.317001399832453</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.8157198809737036</v>
       </c>
       <c r="N12">
-        <v>0.1642306055331214</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.01670586118485434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>0.7895403076743629</v>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0.02003603562280647</v>
+      </c>
+      <c r="U12">
+        <v>0.006510858598519135</v>
+      </c>
+      <c r="V12">
+        <v>0.1642307805468452</v>
+      </c>
+      <c r="W12">
+        <v>0.01670587982441699</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>2.717084983141701</v>
+      </c>
+      <c r="Z12">
+        <v>3.723773057659506</v>
+      </c>
+      <c r="AA12">
+        <v>2.515454525026205</v>
+      </c>
+      <c r="AB12">
+        <v>1.616160994623853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>268.5874563811174</v>
+        <v>99690.04143613727</v>
       </c>
       <c r="C13">
-        <v>0.006859473009305774</v>
+        <v>15.63712664927896</v>
       </c>
       <c r="D13">
-        <v>0.01030912189433031</v>
+        <v>0.8095329522482193</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1112260047985101</v>
       </c>
       <c r="F13">
-        <v>6.291866219322251</v>
+        <v>0.7895403088223375</v>
       </c>
       <c r="G13">
-        <v>2.803993115265536</v>
+        <v>268.5874563811111</v>
       </c>
       <c r="H13">
-        <v>1.342926717301008</v>
+        <v>0.006859480679167093</v>
       </c>
       <c r="I13">
-        <v>0.8528995064115028</v>
+        <v>0.01030913317943919</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.291866287570167</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.80399313842782</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.342926725870954</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.8528995100260411</v>
       </c>
       <c r="N13">
-        <v>0.2170934232023675</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.02458329159617446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>1.075380053775467</v>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0.02418574107324922</v>
+      </c>
+      <c r="U13">
+        <v>0.008677533273460868</v>
+      </c>
+      <c r="V13">
+        <v>0.2170936470700319</v>
+      </c>
+      <c r="W13">
+        <v>0.02458331847704862</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>3.065269654807174</v>
+      </c>
+      <c r="Z13">
+        <v>4.319463347534727</v>
+      </c>
+      <c r="AA13">
+        <v>3.003762197094416</v>
+      </c>
+      <c r="AB13">
+        <v>2.051791851373459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>293.8903078486547</v>
+        <v>99660.68964517687</v>
       </c>
       <c r="C14">
-        <v>0.01067006483090538</v>
+        <v>17.19840263912759</v>
       </c>
       <c r="D14">
-        <v>0.01474946735352627</v>
+        <v>0.9336529238910983</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1389222534917397</v>
       </c>
       <c r="F14">
-        <v>6.323706762568218</v>
+        <v>1.075380055709951</v>
       </c>
       <c r="G14">
-        <v>2.827467716883267</v>
+        <v>293.8903078486434</v>
       </c>
       <c r="H14">
-        <v>1.360672161716621</v>
+        <v>0.01067007659097506</v>
       </c>
       <c r="I14">
-        <v>0.8781140986454333</v>
+        <v>0.01474948315290046</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.323706840175611</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.827467744958975</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.360672172507201</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.8781141035183099</v>
       </c>
       <c r="N14">
-        <v>0.2780809497725314</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.03453177998870047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>1.406428028495485</v>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0.02850351421046189</v>
+      </c>
+      <c r="U14">
+        <v>0.01117863642558277</v>
+      </c>
+      <c r="V14">
+        <v>0.2780812270527404</v>
+      </c>
+      <c r="W14">
+        <v>0.0345318168472017</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>3.40992558838873</v>
+      </c>
+      <c r="Z14">
+        <v>4.910993027232841</v>
+      </c>
+      <c r="AA14">
+        <v>3.489911450844543</v>
+      </c>
+      <c r="AB14">
+        <v>2.49518342034315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>317.4821082327779</v>
+        <v>99633.05029542978</v>
       </c>
       <c r="C15">
-        <v>0.0158509502097652</v>
+        <v>18.73121170074356</v>
       </c>
       <c r="D15">
-        <v>0.02036045164364317</v>
+        <v>1.062349214642742</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1694755796883731</v>
       </c>
       <c r="F15">
-        <v>6.350558612521376</v>
+        <v>1.406428031551438</v>
       </c>
       <c r="G15">
-        <v>2.84514532304514</v>
+        <v>317.4821082327601</v>
       </c>
       <c r="H15">
-        <v>1.373244402267767</v>
+        <v>0.01585096738380829</v>
       </c>
       <c r="I15">
-        <v>0.8953067282992567</v>
+        <v>0.02036047295332136</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.350558696063413</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.845145355592822</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.373244415419231</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.8953067345634862</v>
       </c>
       <c r="N15">
-        <v>0.3472989377791829</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04670843294155477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>1.782363510832865</v>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0.03303560146640083</v>
+      </c>
+      <c r="U15">
+        <v>0.01401020349591717</v>
+      </c>
+      <c r="V15">
+        <v>0.3472992669485933</v>
+      </c>
+      <c r="W15">
+        <v>0.04670848149391479</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>3.750679131796942</v>
+      </c>
+      <c r="Z15">
+        <v>5.496330775176335</v>
+      </c>
+      <c r="AA15">
+        <v>3.97062531615083</v>
+      </c>
+      <c r="AB15">
+        <v>2.938976392304502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>344.6786940803248</v>
+        <v>99601.80990194685</v>
       </c>
       <c r="C16">
-        <v>0.02266998364257064</v>
+        <v>20.23515374754009</v>
       </c>
       <c r="D16">
-        <v>0.02727255624622529</v>
+        <v>1.194258925804224</v>
       </c>
       <c r="E16">
-        <v>7.472550124905366E-05</v>
+        <v>0.2027413677455312</v>
       </c>
       <c r="F16">
-        <v>6.374289651640226</v>
+        <v>1.782363515420795</v>
       </c>
       <c r="G16">
-        <v>2.859151870098405</v>
+        <v>344.6786940802954</v>
       </c>
       <c r="H16">
-        <v>1.382504097500214</v>
+        <v>0.02267000772003611</v>
       </c>
       <c r="I16">
-        <v>0.9071761803202874</v>
+        <v>0.02727258394742805</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.374289736844974</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.859151905965399</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.382504112860329</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9071761880848557</v>
       </c>
       <c r="N16">
-        <v>0.4247128359028388</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06124147443048494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>2.20260411308175</v>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.03774748401803325</v>
+      </c>
+      <c r="U16">
+        <v>0.01715075785307019</v>
+      </c>
+      <c r="V16">
+        <v>0.4247132092928685</v>
+      </c>
+      <c r="W16">
+        <v>0.06124153596386343</v>
+      </c>
+      <c r="X16">
+        <v>7.472558639696958E-05</v>
+      </c>
+      <c r="Y16">
+        <v>4.087094207217296</v>
+      </c>
+      <c r="Z16">
+        <v>6.073925271666292</v>
+      </c>
+      <c r="AA16">
+        <v>4.443671991112675</v>
+      </c>
+      <c r="AB16">
+        <v>3.378202698182352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>370.7112746652492</v>
+        <v>99571.7351830345</v>
       </c>
       <c r="C17">
-        <v>0.03140049274485637</v>
+        <v>21.71154221479968</v>
       </c>
       <c r="D17">
-        <v>0.03559875135708293</v>
+        <v>1.328340531433136</v>
       </c>
       <c r="E17">
-        <v>0.0003736181531567553</v>
+        <v>0.2385413303719669</v>
       </c>
       <c r="F17">
-        <v>6.396572111368917</v>
+        <v>2.202604119684071</v>
       </c>
       <c r="G17">
-        <v>2.871076117574226</v>
+        <v>370.7112746652052</v>
       </c>
       <c r="H17">
-        <v>1.389771043109708</v>
+        <v>0.03140052528360877</v>
       </c>
       <c r="I17">
-        <v>0.9156351285874397</v>
+        <v>0.03559878608941645</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.396572193563935</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.871076155110886</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.38977106019088</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9156351378352844</v>
       </c>
       <c r="N17">
-        <v>0.5101880763260678</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0782300710769485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>2.701690632670606</v>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0.04259638132523064</v>
+      </c>
+      <c r="U17">
+        <v>0.02057155548539032</v>
+      </c>
+      <c r="V17">
+        <v>0.5101884813061512</v>
+      </c>
+      <c r="W17">
+        <v>0.07823014611535711</v>
+      </c>
+      <c r="X17">
+        <v>0.0003736185788844992</v>
+      </c>
+      <c r="Y17">
+        <v>4.419219727680911</v>
+      </c>
+      <c r="Z17">
+        <v>6.64329279881589</v>
+      </c>
+      <c r="AA17">
+        <v>4.908037316011992</v>
+      </c>
+      <c r="AB17">
+        <v>3.809950220595244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>398.8758329710327</v>
+        <v>99539.34826913552</v>
       </c>
       <c r="C18">
-        <v>0.0423145040313519</v>
+        <v>23.34378381599723</v>
       </c>
       <c r="D18">
-        <v>0.04543613773010455</v>
+        <v>1.463691090553131</v>
       </c>
       <c r="E18">
-        <v>0.001105052022859693</v>
+        <v>0.2766489775843925</v>
       </c>
       <c r="F18">
-        <v>6.418022990680606</v>
+        <v>2.701690642024223</v>
       </c>
       <c r="G18">
-        <v>2.881740917253893</v>
+        <v>398.8758329709674</v>
       </c>
       <c r="H18">
-        <v>1.395804550550358</v>
+        <v>0.04231454653173101</v>
       </c>
       <c r="I18">
-        <v>0.9219036186280078</v>
+        <v>0.04543617980337513</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.418023065051609</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.881740954514059</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.395804568605409</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9219036291569995</v>
       </c>
       <c r="N18">
-        <v>0.6034417431622275</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0977318500411518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>3.24586648020921</v>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.04753936346486878</v>
+      </c>
+      <c r="U18">
+        <v>0.02424047939269565</v>
+      </c>
+      <c r="V18">
+        <v>0.6034421633465334</v>
+      </c>
+      <c r="W18">
+        <v>0.09773193813992387</v>
+      </c>
+      <c r="X18">
+        <v>0.001105053282032894</v>
+      </c>
+      <c r="Y18">
+        <v>4.741889811313365</v>
+      </c>
+      <c r="Z18">
+        <v>7.192950131308866</v>
+      </c>
+      <c r="AA18">
+        <v>5.352902509877779</v>
+      </c>
+      <c r="AB18">
+        <v>4.223058973550428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>423.5759211880152</v>
+        <v>99510.42620347586</v>
       </c>
       <c r="C19">
-        <v>0.05567631609154768</v>
+        <v>24.94662878990054</v>
       </c>
       <c r="D19">
-        <v>0.05686715971315642</v>
+        <v>1.602839971667111</v>
       </c>
       <c r="E19">
-        <v>0.00251964932071943</v>
+        <v>0.3168447000120966</v>
       </c>
       <c r="F19">
-        <v>6.439584820308234</v>
+        <v>3.245866492936083</v>
       </c>
       <c r="G19">
-        <v>2.891875551516619</v>
+        <v>423.5759211879266</v>
       </c>
       <c r="H19">
-        <v>1.401192851028001</v>
+        <v>0.05567636986033159</v>
       </c>
       <c r="I19">
-        <v>0.9268546383396374</v>
+        <v>0.05686720904563636</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.439584884733704</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.891875586410233</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.401192869146427</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9268546497706434</v>
       </c>
       <c r="N19">
-        <v>0.7041564821362203</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1197794609526411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>3.83417920064357</v>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0.052544645544218</v>
+      </c>
+      <c r="U19">
+        <v>0.02812855269167096</v>
+      </c>
+      <c r="V19">
+        <v>0.704156898492779</v>
+      </c>
+      <c r="W19">
+        <v>0.1197795606291044</v>
+      </c>
+      <c r="X19">
+        <v>0.002519652191774895</v>
+      </c>
+      <c r="Y19">
+        <v>5.060112797505272</v>
+      </c>
+      <c r="Z19">
+        <v>7.733405416768798</v>
+      </c>
+      <c r="AA19">
+        <v>5.787696775068932</v>
+      </c>
+      <c r="AB19">
+        <v>4.625299513815724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>448.1750487692434</v>
+        <v>99481.60717580153</v>
       </c>
       <c r="C20">
-        <v>0.07173956759159333</v>
+        <v>26.51994901794456</v>
       </c>
       <c r="D20">
-        <v>0.06996249856666943</v>
+        <v>1.744555191007588</v>
       </c>
       <c r="E20">
-        <v>0.004896017625007768</v>
+        <v>0.3590443063333288</v>
       </c>
       <c r="F20">
-        <v>6.461371233880924</v>
+        <v>3.834179217377255</v>
       </c>
       <c r="G20">
-        <v>2.901755863987479</v>
+        <v>448.1750487691265</v>
       </c>
       <c r="H20">
-        <v>1.406207321805994</v>
+        <v>0.07173963360956534</v>
       </c>
       <c r="I20">
-        <v>0.9309900200160727</v>
+        <v>0.06996255464462092</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.461371288089807</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.901755895150531</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.406207338989097</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9309900318330211</v>
       </c>
       <c r="N20">
-        <v>0.8121243110542733</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.1443674231180922</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>4.465648999196065</v>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0.05766851786556228</v>
+      </c>
+      <c r="U20">
+        <v>0.03221213967654501</v>
+      </c>
+      <c r="V20">
+        <v>0.8121247092089426</v>
+      </c>
+      <c r="W20">
+        <v>0.1443675318566925</v>
+      </c>
+      <c r="X20">
+        <v>0.004896023203838189</v>
+      </c>
+      <c r="Y20">
+        <v>5.373829247886079</v>
+      </c>
+      <c r="Z20">
+        <v>8.264508252987605</v>
+      </c>
+      <c r="AA20">
+        <v>6.212272639271841</v>
+      </c>
+      <c r="AB20">
+        <v>5.016141892376663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>472.0730031562243</v>
+        <v>99453.49097545139</v>
       </c>
       <c r="C21">
-        <v>0.09074408148065766</v>
+        <v>28.06444295667888</v>
       </c>
       <c r="D21">
-        <v>0.0847850532846729</v>
+        <v>1.887870705904287</v>
       </c>
       <c r="E21">
-        <v>0.008543805324864205</v>
+        <v>0.4031221021513484</v>
       </c>
       <c r="F21">
-        <v>6.483586480738479</v>
+        <v>4.465649020548598</v>
       </c>
       <c r="G21">
-        <v>2.911627864501643</v>
+        <v>472.0730031560744</v>
       </c>
       <c r="H21">
-        <v>1.411061999558533</v>
+        <v>0.09074416030634633</v>
       </c>
       <c r="I21">
-        <v>0.9346554386096712</v>
+        <v>0.08478511533362276</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.483586525541473</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.911627891367867</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.411062015083016</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.9346554502068553</v>
       </c>
       <c r="N21">
-        <v>0.9271188396847088</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.1714842233568663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>5.139305794617814</v>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0.062894234209733</v>
+      </c>
+      <c r="U21">
+        <v>0.03647254968914751</v>
+      </c>
+      <c r="V21">
+        <v>0.927119210714492</v>
+      </c>
+      <c r="W21">
+        <v>0.1714843381180599</v>
+      </c>
+      <c r="X21">
+        <v>0.008543815005251703</v>
+      </c>
+      <c r="Y21">
+        <v>5.683169554498685</v>
+      </c>
+      <c r="Z21">
+        <v>8.786452341179741</v>
+      </c>
+      <c r="AA21">
+        <v>6.626804401141621</v>
+      </c>
+      <c r="AB21">
+        <v>5.395535004824886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>495.9684445580109</v>
+        <v>99425.37934008335</v>
       </c>
       <c r="C22">
-        <v>0.1129155699381949</v>
+        <v>29.58047039959299</v>
       </c>
       <c r="D22">
-        <v>0.1013893346052917</v>
+        <v>2.031989208624571</v>
       </c>
       <c r="E22">
-        <v>0.01379464352336437</v>
+        <v>0.4489133969159367</v>
       </c>
       <c r="F22">
-        <v>6.506246834513481</v>
+        <v>5.139305821149597</v>
       </c>
       <c r="G22">
-        <v>2.921600966669199</v>
+        <v>495.968444557822</v>
       </c>
       <c r="H22">
-        <v>1.415875073444921</v>
+        <v>0.1129156616956892</v>
       </c>
       <c r="I22">
-        <v>0.9380625654311268</v>
+        <v>0.1013894017022336</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.50624687133718</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.921600989270932</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.415875086955372</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.9380625762770092</v>
       </c>
       <c r="N22">
-        <v>1.048830026115564</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.2011064242714373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>5.92850860061563</v>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0.06819018588365927</v>
+      </c>
+      <c r="U22">
+        <v>0.04089056451089502</v>
+      </c>
+      <c r="V22">
+        <v>1.048830365806414</v>
+      </c>
+      <c r="W22">
+        <v>0.2011065419617851</v>
+      </c>
+      <c r="X22">
+        <v>0.0137946589670848</v>
+      </c>
+      <c r="Y22">
+        <v>5.988206061948691</v>
+      </c>
+      <c r="Z22">
+        <v>9.299381505304778</v>
+      </c>
+      <c r="AA22">
+        <v>7.031472637315588</v>
+      </c>
+      <c r="AB22">
+        <v>5.763573423574761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>520.3854201256505</v>
+        <v>99396.52367675268</v>
       </c>
       <c r="C23">
-        <v>0.1384642495617147</v>
+        <v>31.29330973601868</v>
       </c>
       <c r="D23">
-        <v>0.1198217653784091</v>
+        <v>2.176264241903212</v>
       </c>
       <c r="E23">
-        <v>0.02099204101215215</v>
+        <v>0.4962333384165881</v>
       </c>
       <c r="F23">
-        <v>6.529318294219879</v>
+        <v>5.92850863340289</v>
       </c>
       <c r="G23">
-        <v>2.931723920698729</v>
+        <v>520.3854201254164</v>
       </c>
       <c r="H23">
-        <v>1.420713723143343</v>
+        <v>0.1384643539734838</v>
       </c>
       <c r="I23">
-        <v>0.9413448549968623</v>
+        <v>0.1198218365334074</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.529318324820675</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.931723939461125</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.420713734589351</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.9413448647367342</v>
       </c>
       <c r="N23">
-        <v>1.176884737934663</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.2331992177469435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
-        <v>6.76000463068988</v>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0.07352625613591285</v>
+      </c>
+      <c r="U23">
+        <v>0.04544704984925829</v>
+      </c>
+      <c r="V23">
+        <v>1.176885045826996</v>
+      </c>
+      <c r="W23">
+        <v>0.2331993355598721</v>
+      </c>
+      <c r="X23">
+        <v>0.02099206411915455</v>
+      </c>
+      <c r="Y23">
+        <v>6.276735254883877</v>
+      </c>
+      <c r="Z23">
+        <v>9.77988181256476</v>
+      </c>
+      <c r="AA23">
+        <v>7.407219456339794</v>
+      </c>
+      <c r="AB23">
+        <v>6.10131384272799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="1">
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>551.7131835786287</v>
+        <v>99360.76475136695</v>
       </c>
       <c r="C24">
-        <v>0.1675840165203505</v>
+        <v>32.97237773452215</v>
       </c>
       <c r="D24">
-        <v>0.1401214837766861</v>
+        <v>2.323956551481334</v>
       </c>
       <c r="E24">
-        <v>0.03048149924458543</v>
+        <v>0.5448546094571881</v>
       </c>
       <c r="F24">
-        <v>6.552451928230131</v>
+        <v>6.760004670156126</v>
       </c>
       <c r="G24">
-        <v>2.941831264241468</v>
+        <v>551.7131835783287</v>
       </c>
       <c r="H24">
-        <v>1.425525556230652</v>
+        <v>0.1675841329654326</v>
       </c>
       <c r="I24">
-        <v>0.9445269678728292</v>
+        <v>0.1401215579944556</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.552451952815487</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.941831279824776</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.425525565772588</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9445269763441136</v>
       </c>
       <c r="N24">
-        <v>1.310783742572897</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2676984614573664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25">
-        <v>7.632680658736151</v>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0.0788720502362897</v>
+      </c>
+      <c r="U24">
+        <v>0.05012025176751572</v>
+      </c>
+      <c r="V24">
+        <v>1.310784021079418</v>
+      </c>
+      <c r="W24">
+        <v>0.2676985770819872</v>
+      </c>
+      <c r="X24">
+        <v>0.03048153212422933</v>
+      </c>
+      <c r="Y24">
+        <v>6.560369329412541</v>
+      </c>
+      <c r="Z24">
+        <v>10.25043248517617</v>
+      </c>
+      <c r="AA24">
+        <v>7.772662899448373</v>
+      </c>
+      <c r="AB24">
+        <v>6.427408877008179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="1">
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>586.0856376100326</v>
+        <v>99321.96632793058</v>
       </c>
       <c r="C25">
-        <v>0.2004498359105007</v>
+        <v>34.61917480408163</v>
       </c>
       <c r="D25">
-        <v>0.1623197771073586</v>
+        <v>2.473920991523153</v>
       </c>
       <c r="E25">
-        <v>0.04260555294388824</v>
+        <v>0.594801461665068</v>
       </c>
       <c r="F25">
-        <v>6.57592310689268</v>
+        <v>7.632680705207237</v>
       </c>
       <c r="G25">
-        <v>2.95206383970623</v>
+        <v>586.0856376096536</v>
       </c>
       <c r="H25">
-        <v>1.430381034874167</v>
+        <v>0.2004499634951157</v>
       </c>
       <c r="I25">
-        <v>0.9476945282277851</v>
+        <v>0.1623198534337764</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.575923124613617</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.952063852407801</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.430381042805319</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9476945354301454</v>
       </c>
       <c r="N25">
-        <v>1.450390352096564</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.3045536919466269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26">
-        <v>8.545484585029476</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0.0843162627252886</v>
+      </c>
+      <c r="U25">
+        <v>0.05490090710811793</v>
+      </c>
+      <c r="V25">
+        <v>1.450390601682997</v>
+      </c>
+      <c r="W25">
+        <v>0.3045538037002892</v>
+      </c>
+      <c r="X25">
+        <v>0.04260559789111742</v>
+      </c>
+      <c r="Y25">
+        <v>6.839427809296962</v>
+      </c>
+      <c r="Z25">
+        <v>10.71160487628759</v>
+      </c>
+      <c r="AA25">
+        <v>8.12836689837552</v>
+      </c>
+      <c r="AB25">
+        <v>6.74245736797334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1">
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>624.6490703868818</v>
+        <v>99278.98342381285</v>
       </c>
       <c r="C26">
-        <v>0.2372218762161567</v>
+        <v>36.23371599615909</v>
       </c>
       <c r="D26">
-        <v>0.1864485360323629</v>
+        <v>2.625157262995367</v>
       </c>
       <c r="E26">
-        <v>0.05770747146513449</v>
+        <v>0.6460083574331084</v>
       </c>
       <c r="F26">
-        <v>6.599624936295506</v>
+        <v>8.545484638739341</v>
       </c>
       <c r="G26">
-        <v>2.962404320280466</v>
+        <v>624.649070386405</v>
       </c>
       <c r="H26">
-        <v>1.435277535810536</v>
+        <v>0.2372220138333163</v>
       </c>
       <c r="I26">
-        <v>0.9508625775731948</v>
+        <v>0.1864486135233116</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>6.599624945780026</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2.962404329960454</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.435277542302045</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.9508625836238056</v>
       </c>
       <c r="N26">
-        <v>1.595489675958308</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0.3437095425366182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27">
-        <v>9.497386509000306</v>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0.08984715981357233</v>
+      </c>
+      <c r="U26">
+        <v>0.05978204275759311</v>
+      </c>
+      <c r="V26">
+        <v>1.595489894577461</v>
+      </c>
+      <c r="W26">
+        <v>0.3437096491306212</v>
+      </c>
+      <c r="X26">
+        <v>0.05770753068680324</v>
+      </c>
+      <c r="Y26">
+        <v>7.113929961537762</v>
+      </c>
+      <c r="Z26">
+        <v>11.16350652004081</v>
+      </c>
+      <c r="AA26">
+        <v>8.474541300929678</v>
+      </c>
+      <c r="AB26">
+        <v>7.046785456847624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="1">
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>675.0398492788058</v>
+        <v>99224.18685331709</v>
       </c>
       <c r="C27">
-        <v>0.2780459578531036</v>
+        <v>37.81356981006121</v>
       </c>
       <c r="D27">
-        <v>0.2125367262925302</v>
+        <v>2.776701350407135</v>
       </c>
       <c r="E27">
-        <v>0.07612351817061384</v>
+        <v>0.6983185633936189</v>
       </c>
       <c r="F27">
-        <v>6.622984149141112</v>
+        <v>9.497386570098326</v>
       </c>
       <c r="G27">
-        <v>2.97262159069549</v>
+        <v>675.0398492781937</v>
       </c>
       <c r="H27">
-        <v>1.440113712539715</v>
+        <v>0.2780461042190936</v>
       </c>
       <c r="I27">
-        <v>0.9539738429722907</v>
+        <v>0.2125368040197967</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>6.622984148822889</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2.97262159690552</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.440113717565718</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.9539738479860707</v>
       </c>
       <c r="N27">
-        <v>1.745679572723004</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>0.3850860181812578</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28">
-        <v>10.95302352196733</v>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0.09542783672836824</v>
+      </c>
+      <c r="U27">
+        <v>0.06475068396850506</v>
+      </c>
+      <c r="V27">
+        <v>1.745679756239181</v>
+      </c>
+      <c r="W27">
+        <v>0.3850861185096383</v>
+      </c>
+      <c r="X27">
+        <v>0.07612359351044228</v>
+      </c>
+      <c r="Y27">
+        <v>7.383414000557792</v>
+      </c>
+      <c r="Z27">
+        <v>11.60549392463946</v>
+      </c>
+      <c r="AA27">
+        <v>8.810823404955515</v>
+      </c>
+      <c r="AB27">
+        <v>7.340245572045706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="1">
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>727.1404836852348</v>
+        <v>99167.23605744643</v>
       </c>
       <c r="C28">
-        <v>0.3230512745727748</v>
+        <v>39.812700514661</v>
       </c>
       <c r="D28">
-        <v>0.2406078062277199</v>
+        <v>2.92809924927116</v>
       </c>
       <c r="E28">
-        <v>0.09818964420677462</v>
+        <v>0.7516674377964621</v>
       </c>
       <c r="F28">
-        <v>6.646618310888901</v>
+        <v>10.95302359405339</v>
       </c>
       <c r="G28">
-        <v>2.982995342787996</v>
+        <v>727.140483684473</v>
       </c>
       <c r="H28">
-        <v>1.445035185182466</v>
+        <v>0.3230514282567524</v>
       </c>
       <c r="I28">
-        <v>0.9571345675267794</v>
+        <v>0.2406078832913564</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>6.646618299203329</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2.982995344915</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.445035188559872</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.9571345715400621</v>
       </c>
       <c r="N28">
-        <v>1.900801702475972</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.4286727712574035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29">
-        <v>12.44201257008054</v>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0.1010391002640181</v>
+      </c>
+      <c r="U28">
+        <v>0.0698039755211018</v>
+      </c>
+      <c r="V28">
+        <v>1.900801845278073</v>
+      </c>
+      <c r="W28">
+        <v>0.4286728642735411</v>
+      </c>
+      <c r="X28">
+        <v>0.09818973693810393</v>
+      </c>
+      <c r="Y28">
+        <v>7.591784893938263</v>
+      </c>
+      <c r="Z28">
+        <v>11.90426068792994</v>
+      </c>
+      <c r="AA28">
+        <v>9.027114888989974</v>
+      </c>
+      <c r="AB28">
+        <v>7.460857364333613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="1">
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>783.7489297192731</v>
+        <v>99105.78630391526</v>
       </c>
       <c r="C29">
-        <v>0.372359434783089</v>
+        <v>41.77179308029294</v>
       </c>
       <c r="D29">
-        <v>0.2706845334866047</v>
+        <v>3.086558881815232</v>
       </c>
       <c r="E29">
-        <v>0.1242244481546671</v>
+        <v>0.8058865942701001</v>
       </c>
       <c r="F29">
-        <v>6.670486542665568</v>
+        <v>12.44201265298156</v>
       </c>
       <c r="G29">
-        <v>2.993420218065227</v>
+        <v>783.7489297183384</v>
       </c>
       <c r="H29">
-        <v>1.44999346566334</v>
+        <v>0.372359594235124</v>
       </c>
       <c r="I29">
-        <v>0.9603220501112412</v>
+        <v>0.270684609026158</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>6.670486518293528</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2.993420215436445</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.449993467114335</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.9603220530652278</v>
       </c>
       <c r="N29">
-        <v>2.060439354216279</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0.4744066498120294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30">
-        <v>13.96319660763034</v>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0.1066512302554223</v>
+      </c>
+      <c r="U29">
+        <v>0.07492949296522571</v>
+      </c>
+      <c r="V29">
+        <v>2.06043944969653</v>
+      </c>
+      <c r="W29">
+        <v>0.4744067344181397</v>
+      </c>
+      <c r="X29">
+        <v>0.1242245588176983</v>
+      </c>
+      <c r="Y29">
+        <v>7.795366747891508</v>
+      </c>
+      <c r="Z29">
+        <v>12.19415908956792</v>
+      </c>
+      <c r="AA29">
+        <v>9.235470077987951</v>
+      </c>
+      <c r="AB29">
+        <v>7.575601318173101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="1">
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>841.2116692105719</v>
+        <v>99043.48802784027</v>
       </c>
       <c r="C30">
-        <v>0.426079233250543</v>
+        <v>43.69281600105035</v>
       </c>
       <c r="D30">
-        <v>0.3027854071243852</v>
+        <v>3.250189998474846</v>
       </c>
       <c r="E30">
-        <v>0.1545362473455887</v>
+        <v>0.8612570124549678</v>
       </c>
       <c r="F30">
-        <v>6.694912249743184</v>
+        <v>13.96319670105749</v>
       </c>
       <c r="G30">
-        <v>3.004040302030314</v>
+        <v>841.2116692094537</v>
       </c>
       <c r="H30">
-        <v>1.455031573726054</v>
+        <v>0.4260793968258867</v>
       </c>
       <c r="I30">
-        <v>0.9635699464845597</v>
+        <v>0.3027854803275677</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>6.694912211615487</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>3.004040294023114</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.455031572932383</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.9635699482448417</v>
       </c>
       <c r="N30">
-        <v>2.224822222341236</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0.5222497359302278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31">
-        <v>15.51552686610763</v>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0.1124599913142725</v>
+      </c>
+      <c r="U30">
+        <v>0.08013276114459077</v>
+      </c>
+      <c r="V30">
+        <v>2.224822263651963</v>
+      </c>
+      <c r="W30">
+        <v>0.5222498109239396</v>
+      </c>
+      <c r="X30">
+        <v>0.1545363756450226</v>
+      </c>
+      <c r="Y30">
+        <v>7.994578677879161</v>
+      </c>
+      <c r="Z30">
+        <v>12.47594480352026</v>
+      </c>
+      <c r="AA30">
+        <v>9.436577086932015</v>
+      </c>
+      <c r="AB30">
+        <v>7.685122562151372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="1">
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>906.7900359675774</v>
+        <v>98973.08733989688</v>
       </c>
       <c r="C31">
-        <v>0.4843129855012575</v>
+        <v>45.57321122942417</v>
       </c>
       <c r="D31">
-        <v>0.3369405675128616</v>
+        <v>3.417199915877248</v>
       </c>
       <c r="E31">
-        <v>0.1894125281332728</v>
+        <v>0.917829269143009</v>
       </c>
       <c r="F31">
-        <v>6.719394782813058</v>
+        <v>15.51552696964636</v>
       </c>
       <c r="G31">
-        <v>3.014671552923388</v>
+        <v>906.7900359662433</v>
       </c>
       <c r="H31">
-        <v>1.46005527138515</v>
+        <v>0.4843131514842137</v>
       </c>
       <c r="I31">
-        <v>0.9668032595609931</v>
+        <v>0.3369406375694782</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>6.719394730020964</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3.014671539005908</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1.460055268041299</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.9668032599464732</v>
       </c>
       <c r="N31">
-        <v>2.393917920445035</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>0.5721314697112454</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32">
-        <v>17.09789443545697</v>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0.1184530625407165</v>
+      </c>
+      <c r="U31">
+        <v>0.08542007245827365</v>
+      </c>
+      <c r="V31">
+        <v>2.393917900728154</v>
+      </c>
+      <c r="W31">
+        <v>0.5721315337646865</v>
+      </c>
+      <c r="X31">
+        <v>0.1894126731474818</v>
+      </c>
+      <c r="Y31">
+        <v>8.188991408624478</v>
+      </c>
+      <c r="Z31">
+        <v>12.74904071872539</v>
+      </c>
+      <c r="AA31">
+        <v>9.630096710539899</v>
+      </c>
+      <c r="AB31">
+        <v>7.789214086078085</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1">
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>973.0107392354228</v>
+        <v>98902.05061173093</v>
       </c>
       <c r="C32">
-        <v>0.5471547672627046</v>
+        <v>47.41662754719647</v>
       </c>
       <c r="D32">
-        <v>0.3731819933289394</v>
+        <v>3.586462077268927</v>
       </c>
       <c r="E32">
-        <v>0.2291489875777678</v>
+        <v>0.9756860399358005</v>
       </c>
       <c r="F32">
-        <v>6.74441486564462</v>
+        <v>17.09789454855375</v>
       </c>
       <c r="G32">
-        <v>3.025548439992326</v>
+        <v>973.0107392338598</v>
       </c>
       <c r="H32">
-        <v>1.465189947534506</v>
+        <v>0.5471549338682252</v>
       </c>
       <c r="I32">
-        <v>0.9700972233162413</v>
+        <v>0.3731820593788106</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>6.744414797358848</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>3.025548419710911</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1.46518994137361</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.9700972221326358</v>
       </c>
       <c r="N32">
-        <v>2.567918439027909</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>0.6240881431299223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
-        <v>21.00488729161518</v>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0.1245955523612809</v>
+      </c>
+      <c r="U32">
+        <v>0.09080648680505835</v>
+      </c>
+      <c r="V32">
+        <v>2.567918351517837</v>
+      </c>
+      <c r="W32">
+        <v>0.6240881947751593</v>
+      </c>
+      <c r="X32">
+        <v>0.2291491480272218</v>
+      </c>
+      <c r="Y32">
+        <v>8.379329943369349</v>
+      </c>
+      <c r="Z32">
+        <v>13.01467990386499</v>
+      </c>
+      <c r="AA32">
+        <v>9.817053065181202</v>
+      </c>
+      <c r="AB32">
+        <v>7.888770802415818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="1">
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>1045.732828456639</v>
+        <v>98524.92124644207</v>
       </c>
       <c r="C33">
-        <v>0.6147019594288997</v>
+        <v>328.8225015597226</v>
       </c>
       <c r="D33">
-        <v>0.411546077543853</v>
+        <v>3.756752819877143</v>
       </c>
       <c r="E33">
-        <v>0.2740086803682241</v>
+        <v>1.034714207339793</v>
       </c>
       <c r="F33">
-        <v>26.7718218958785</v>
+        <v>21.00488742621506</v>
       </c>
       <c r="G33">
-        <v>3.03648973018726</v>
+        <v>1045.732828454825</v>
       </c>
       <c r="H33">
-        <v>1.470355792636971</v>
+        <v>0.6147021247876026</v>
       </c>
       <c r="I33">
-        <v>0.9734023319297731</v>
+        <v>0.4115461386331311</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>26.77182174187132</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3.036489703140643</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.470355783430571</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.9734023289928421</v>
       </c>
       <c r="N33">
-        <v>2.746566235244846</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0.6780815611292711</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
-        <v>24.73197785126003</v>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0.1308311323543948</v>
+      </c>
+      <c r="U33">
+        <v>0.09628913298287398</v>
+      </c>
+      <c r="V33">
+        <v>2.74656607332252</v>
+      </c>
+      <c r="W33">
+        <v>0.6780815987308082</v>
+      </c>
+      <c r="X33">
+        <v>0.2740088548143489</v>
+      </c>
+      <c r="Y33">
+        <v>8.300742846404361</v>
+      </c>
+      <c r="Z33">
+        <v>12.58392646410186</v>
+      </c>
+      <c r="AA33">
+        <v>9.275145636055001</v>
+      </c>
+      <c r="AB33">
+        <v>7.363159530215203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="1">
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>1121.582689842064</v>
+        <v>98146.05891125725</v>
       </c>
       <c r="C34">
-        <v>0.6870466716990097</v>
+        <v>602.6022209903647</v>
       </c>
       <c r="D34">
-        <v>0.4520669975826757</v>
+        <v>8.76440230908592</v>
       </c>
       <c r="E34">
-        <v>0.3242541692753463</v>
+        <v>1.094842985315669</v>
       </c>
       <c r="F34">
-        <v>41.09915553300335</v>
+        <v>24.73197800386164</v>
       </c>
       <c r="G34">
-        <v>8.848247847151075</v>
+        <v>1121.582689839976</v>
       </c>
       <c r="H34">
-        <v>1.475602152699552</v>
+        <v>0.6870468338323574</v>
       </c>
       <c r="I34">
-        <v>0.9767569568598421</v>
+        <v>0.4520670526315652</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>41.09915533613218</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>8.848247792829856</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.475602140246656</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.9767569520047616</v>
       </c>
       <c r="N34">
-        <v>2.929746947701494</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0.7341334288144615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
-        <v>28.37670985173732</v>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0.1371232603928983</v>
+      </c>
+      <c r="U34">
+        <v>0.1018694107288598</v>
+      </c>
+      <c r="V34">
+        <v>2.929746704927572</v>
+      </c>
+      <c r="W34">
+        <v>0.7341334505744554</v>
+      </c>
+      <c r="X34">
+        <v>0.3242543563028924</v>
+      </c>
+      <c r="Y34">
+        <v>9.492797383629483</v>
+      </c>
+      <c r="Z34">
+        <v>12.19391763938114</v>
+      </c>
+      <c r="AA34">
+        <v>8.799140396664736</v>
+      </c>
+      <c r="AB34">
+        <v>6.913095903761345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="1">
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>1201.613315850488</v>
+        <v>97764.44188700896</v>
       </c>
       <c r="C35">
-        <v>0.7642822646115018</v>
+        <v>868.9039388947309</v>
       </c>
       <c r="D35">
-        <v>0.4947792680174758</v>
+        <v>17.60040522776348</v>
       </c>
       <c r="E35">
-        <v>0.3801219053238896</v>
+        <v>1.408217281131984</v>
       </c>
       <c r="F35">
-        <v>51.84472338835275</v>
+        <v>28.37671001846103</v>
       </c>
       <c r="G35">
-        <v>15.07834411001089</v>
+        <v>1201.613315848102</v>
       </c>
       <c r="H35">
-        <v>3.801173373441137</v>
+        <v>0.7642824214027054</v>
       </c>
       <c r="I35">
-        <v>0.9801528652985116</v>
+        <v>0.4947793157971295</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>51.84472317799453</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>15.07834403352088</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>3.801173349502642</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.980152858379252</v>
       </c>
       <c r="N35">
-        <v>3.455477092890609</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>0.7922269661648358</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
-        <v>32.13236477039278</v>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0.2754393605169087</v>
+      </c>
+      <c r="U35">
+        <v>0.1159505296591094</v>
+      </c>
+      <c r="V35">
+        <v>3.455476769040089</v>
+      </c>
+      <c r="W35">
+        <v>0.7922269701363086</v>
+      </c>
+      <c r="X35">
+        <v>0.3801221036631059</v>
+      </c>
+      <c r="Y35">
+        <v>11.51836941821916</v>
+      </c>
+      <c r="Z35">
+        <v>13.24530694497341</v>
+      </c>
+      <c r="AA35">
+        <v>8.381221729281764</v>
+      </c>
+      <c r="AB35">
+        <v>6.527956738653373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="1">
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>1278.818082913972</v>
+        <v>97387.03866180497</v>
       </c>
       <c r="C36">
-        <v>0.8479290536685047</v>
+        <v>1127.93246924472</v>
       </c>
       <c r="D36">
-        <v>0.5495561341755761</v>
+        <v>29.44183362521201</v>
       </c>
       <c r="E36">
-        <v>0.4418700429651614</v>
+        <v>2.141370098633189</v>
       </c>
       <c r="F36">
-        <v>60.36810694500024</v>
+        <v>32.13236494670373</v>
       </c>
       <c r="G36">
-        <v>20.41966250682158</v>
+        <v>1278.818082911295</v>
       </c>
       <c r="H36">
-        <v>6.706035761054902</v>
+        <v>0.847929202858266</v>
       </c>
       <c r="I36">
-        <v>1.911764337445336</v>
+        <v>0.5495561735072675</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>60.36810674161649</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>20.41966241850202</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>6.706035726209882</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1.911764325107643</v>
       </c>
       <c r="N36">
-        <v>4.661982406933074</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.8749351001195128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
-        <v>36.28637267612972</v>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0.5531636426599091</v>
+      </c>
+      <c r="U36">
+        <v>0.1546422168924067</v>
+      </c>
+      <c r="V36">
+        <v>4.661982008045425</v>
+      </c>
+      <c r="W36">
+        <v>0.874935084632065</v>
+      </c>
+      <c r="X36">
+        <v>0.4418702514183964</v>
+      </c>
+      <c r="Y36">
+        <v>14.10139564620948</v>
+      </c>
+      <c r="Z36">
+        <v>15.7113453045441</v>
+      </c>
+      <c r="AA36">
+        <v>8.993684553282385</v>
+      </c>
+      <c r="AB36">
+        <v>6.199144072871344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="1">
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>1355.251669439962</v>
+        <v>97011.79079827327</v>
       </c>
       <c r="C37">
-        <v>0.9443895956549243</v>
+        <v>1379.860442930333</v>
       </c>
       <c r="D37">
-        <v>0.632250065510086</v>
+        <v>43.61800889669842</v>
       </c>
       <c r="E37">
-        <v>0.5097265133628998</v>
+        <v>3.395938685841984</v>
       </c>
       <c r="F37">
-        <v>67.53520270022919</v>
+        <v>36.28637285669536</v>
       </c>
       <c r="G37">
-        <v>24.79905151797994</v>
+        <v>1355.251669437004</v>
       </c>
       <c r="H37">
-        <v>9.358216527476806</v>
+        <v>0.9443897349142873</v>
       </c>
       <c r="I37">
-        <v>3.445639377920743</v>
+        <v>0.6322500954017635</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>67.53520251839841</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>24.79905142745785</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>9.358216485963831</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3.445639359057215</v>
       </c>
       <c r="N37">
-        <v>6.815670780652302</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>1.023102026727462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
-        <v>44.09970437287548</v>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0.9497721335302977</v>
+      </c>
+      <c r="U37">
+        <v>0.2316341905935798</v>
+      </c>
+      <c r="V37">
+        <v>6.815670317856597</v>
+      </c>
+      <c r="W37">
+        <v>1.023101990762654</v>
+      </c>
+      <c r="X37">
+        <v>0.5097267306723808</v>
+      </c>
+      <c r="Y37">
+        <v>17.06759977392182</v>
+      </c>
+      <c r="Z37">
+        <v>19.25012029729263</v>
+      </c>
+      <c r="AA37">
+        <v>10.75886671551608</v>
+      </c>
+      <c r="AB37">
+        <v>6.475527148692882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="1">
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1434.225923891328</v>
+        <v>96424.62245036618</v>
       </c>
       <c r="C38">
-        <v>1.066274170774428</v>
+        <v>1835.621881659472</v>
       </c>
       <c r="D38">
-        <v>0.7626084095881842</v>
+        <v>59.58181418591128</v>
       </c>
       <c r="E38">
-        <v>0.5838985572142096</v>
+        <v>5.225101020192136</v>
       </c>
       <c r="F38">
-        <v>73.89389164309037</v>
+        <v>44.09970454963233</v>
       </c>
       <c r="G38">
-        <v>28.44082856478468</v>
+        <v>1434.225923888092</v>
       </c>
       <c r="H38">
-        <v>11.58049909587716</v>
+        <v>1.066274297814578</v>
       </c>
       <c r="I38">
-        <v>5.118782749581243</v>
+        <v>0.7626084293317833</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>73.89389149347316</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>28.44082847972876</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>11.58049905230068</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>5.11878272544575</v>
       </c>
       <c r="N38">
-        <v>10.10694115323287</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>1.287801738725538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
-        <v>53.16140910078226</v>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>1.441493506291599</v>
+      </c>
+      <c r="U38">
+        <v>0.35661273547972</v>
+      </c>
+      <c r="V38">
+        <v>10.10694064146803</v>
+      </c>
+      <c r="W38">
+        <v>1.28780168215531</v>
+      </c>
+      <c r="X38">
+        <v>0.5838987819597719</v>
+      </c>
+      <c r="Y38">
+        <v>19.38768880246557</v>
+      </c>
+      <c r="Z38">
+        <v>22.2398344176134</v>
+      </c>
+      <c r="AA38">
+        <v>12.93397005556075</v>
+      </c>
+      <c r="AB38">
+        <v>7.421999229318757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="1">
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>1519.29741639183</v>
+        <v>95834.97217035812</v>
       </c>
       <c r="C39">
-        <v>1.232692680831924</v>
+        <v>2277.695647512619</v>
       </c>
       <c r="D39">
-        <v>0.9628814220629601</v>
+        <v>44.61565535108051</v>
       </c>
       <c r="E39">
-        <v>0.6645699514741598</v>
+        <v>4.411665283459109</v>
       </c>
       <c r="F39">
-        <v>54.81603607483029</v>
+        <v>53.16140926466374</v>
       </c>
       <c r="G39">
-        <v>17.65519260748215</v>
+        <v>1519.29741638832</v>
       </c>
       <c r="H39">
-        <v>4.31131617457533</v>
+        <v>1.232692793527915</v>
       </c>
       <c r="I39">
-        <v>2.142768953411109</v>
+        <v>0.9628814313025652</v>
       </c>
       <c r="J39">
-        <v>28.2268789874741</v>
+        <v>54.81603611863128</v>
       </c>
       <c r="K39">
-        <v>16.9649027235861</v>
+        <v>17.65519256625214</v>
       </c>
       <c r="L39">
-        <v>11.27330452471781</v>
+        <v>4.311316161172452</v>
       </c>
       <c r="M39">
-        <v>5.886953651882319</v>
+        <v>2.14276894472358</v>
       </c>
       <c r="N39">
-        <v>10.4935350202861</v>
+        <v>28.22687903684831</v>
       </c>
       <c r="O39">
-        <v>1.35795915299464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40">
-        <v>67.2170852439281</v>
+        <v>16.96490268197815</v>
+      </c>
+      <c r="P39">
+        <v>11.27330448826286</v>
+      </c>
+      <c r="Q39">
+        <v>5.886953627119645</v>
+      </c>
+      <c r="R39">
+        <v>41.33243817825971</v>
+      </c>
+      <c r="S39">
+        <v>4.087015670998817</v>
+      </c>
+      <c r="T39">
+        <v>0.3811560255535657</v>
+      </c>
+      <c r="U39">
+        <v>0.2807557554994616</v>
+      </c>
+      <c r="V39">
+        <v>10.49353451663599</v>
+      </c>
+      <c r="W39">
+        <v>1.357959093491058</v>
+      </c>
+      <c r="X39">
+        <v>0.6645701819976039</v>
+      </c>
+      <c r="Y39">
+        <v>19.78332256737864</v>
+      </c>
+      <c r="Z39">
+        <v>22.6051412481573</v>
+      </c>
+      <c r="AA39">
+        <v>13.53358591414778</v>
+      </c>
+      <c r="AB39">
+        <v>7.853628839698164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="1">
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>1606.86871015546</v>
+        <v>95246.41422185856</v>
       </c>
       <c r="C40">
-        <v>2.08569744283816</v>
+        <v>2706.415686311924</v>
       </c>
       <c r="D40">
-        <v>2.416847937359808</v>
+        <v>41.51893223602737</v>
       </c>
       <c r="E40">
-        <v>0.7519454375384602</v>
+        <v>3.553473880976148</v>
       </c>
       <c r="F40">
-        <v>48.79778938726069</v>
+        <v>67.21708538279162</v>
       </c>
       <c r="G40">
-        <v>12.4096127597167</v>
+        <v>1606.868710151697</v>
       </c>
       <c r="H40">
-        <v>2.51242151498026</v>
+        <v>2.085697520668477</v>
       </c>
       <c r="I40">
-        <v>0.8280925532997458</v>
+        <v>2.416847941741268</v>
       </c>
       <c r="J40">
-        <v>50.38557876696245</v>
+        <v>48.79778963301037</v>
       </c>
       <c r="K40">
-        <v>27.3034567752453</v>
+        <v>12.40961275858914</v>
       </c>
       <c r="L40">
-        <v>16.01265150756511</v>
+        <v>2.512421508923139</v>
       </c>
       <c r="M40">
-        <v>7.449734632023241</v>
+        <v>0.8280925504658189</v>
       </c>
       <c r="N40">
-        <v>38.14777601169261</v>
+        <v>50.38557903559958</v>
       </c>
       <c r="O40">
-        <v>3.749553012945408</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41">
-        <v>83.33172760949481</v>
+        <v>27.30345673162366</v>
+      </c>
+      <c r="P40">
+        <v>16.01265146025764</v>
+      </c>
+      <c r="Q40">
+        <v>7.449734602146641</v>
+      </c>
+      <c r="R40">
+        <v>50.31781182543966</v>
+      </c>
+      <c r="S40">
+        <v>4.047188873856329</v>
+      </c>
+      <c r="T40">
+        <v>0.1007815710035922</v>
+      </c>
+      <c r="U40">
+        <v>0.2504315743097674</v>
+      </c>
+      <c r="V40">
+        <v>38.14777562792212</v>
+      </c>
+      <c r="W40">
+        <v>3.749552881013502</v>
+      </c>
+      <c r="X40">
+        <v>0.7519456719080067</v>
+      </c>
+      <c r="Y40">
+        <v>19.45898734914678</v>
+      </c>
+      <c r="Z40">
+        <v>21.45294533553368</v>
+      </c>
+      <c r="AA40">
+        <v>12.32043023009037</v>
+      </c>
+      <c r="AB40">
+        <v>7.212155494673336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="1">
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>1716.624312062178</v>
+        <v>94639.89074971275</v>
       </c>
       <c r="C41">
-        <v>3.151886234377847</v>
+        <v>3121.534779379127</v>
       </c>
       <c r="D41">
-        <v>4.609441887382997</v>
+        <v>43.9020934399344</v>
       </c>
       <c r="E41">
-        <v>0.8460711515515774</v>
+        <v>3.029876192507403</v>
       </c>
       <c r="F41">
-        <v>48.25314182885599</v>
+        <v>83.33172773193763</v>
       </c>
       <c r="G41">
-        <v>10.38558101508877</v>
+        <v>1716.62431205817</v>
       </c>
       <c r="H41">
-        <v>1.736273751887919</v>
+        <v>3.151886282780142</v>
       </c>
       <c r="I41">
-        <v>0.4286252756528222</v>
+        <v>4.609441910838061</v>
       </c>
       <c r="J41">
-        <v>70.63004213552919</v>
+        <v>48.25314227553945</v>
       </c>
       <c r="K41">
-        <v>34.66451128859195</v>
+        <v>10.38558105470237</v>
       </c>
       <c r="L41">
-        <v>18.19319940708979</v>
+        <v>1.736273751398676</v>
       </c>
       <c r="M41">
-        <v>7.617338566315399</v>
+        <v>0.4286252745122273</v>
       </c>
       <c r="N41">
-        <v>70.12905456146044</v>
+        <v>70.63004279078112</v>
       </c>
       <c r="O41">
-        <v>5.819540124276259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42">
-        <v>100.5004694323399</v>
+        <v>34.66451127954787</v>
+      </c>
+      <c r="P41">
+        <v>18.19319936340973</v>
+      </c>
+      <c r="Q41">
+        <v>7.617338537118933</v>
+      </c>
+      <c r="R41">
+        <v>54.88904115300844</v>
+      </c>
+      <c r="S41">
+        <v>3.712692964973717</v>
+      </c>
+      <c r="T41">
+        <v>0.02664144682082502</v>
+      </c>
+      <c r="U41">
+        <v>0.752795543868838</v>
+      </c>
+      <c r="V41">
+        <v>70.12905475997344</v>
+      </c>
+      <c r="W41">
+        <v>5.819539969512266</v>
+      </c>
+      <c r="X41">
+        <v>0.8460713874890997</v>
+      </c>
+      <c r="Y41">
+        <v>18.95462927306566</v>
+      </c>
+      <c r="Z41">
+        <v>19.76648857076492</v>
+      </c>
+      <c r="AA41">
+        <v>10.88026247940827</v>
+      </c>
+      <c r="AB41">
+        <v>6.239201415958709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="1">
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>1822.632013045929</v>
+        <v>94040.70296141134</v>
       </c>
       <c r="C42">
-        <v>4.441059216048474</v>
+        <v>3523.914397640006</v>
       </c>
       <c r="D42">
-        <v>7.483744520978745</v>
+        <v>48.75575174322788</v>
       </c>
       <c r="E42">
-        <v>0.9473137078627353</v>
+        <v>2.83943069023251</v>
       </c>
       <c r="F42">
-        <v>49.83605081468178</v>
+        <v>100.5004695620826</v>
       </c>
       <c r="G42">
-        <v>9.893828669523815</v>
+        <v>1822.632013041716</v>
       </c>
       <c r="H42">
-        <v>1.432269606368367</v>
+        <v>4.441059245123667</v>
       </c>
       <c r="I42">
-        <v>0.2778244953242742</v>
+        <v>7.48374460080613</v>
       </c>
       <c r="J42">
-        <v>90.78314026982062</v>
+        <v>49.83605146747563</v>
       </c>
       <c r="K42">
-        <v>40.84121255380868</v>
+        <v>9.893828749837008</v>
       </c>
       <c r="L42">
-        <v>19.32019581041799</v>
+        <v>1.432269611426925</v>
       </c>
       <c r="M42">
-        <v>7.338982662764299</v>
+        <v>0.2778244951153984</v>
       </c>
       <c r="N42">
-        <v>103.3550955319723</v>
+        <v>90.78314146883413</v>
       </c>
       <c r="O42">
-        <v>7.745326649461144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
-        <v>121.5106511986811</v>
+        <v>40.84121261306805</v>
+      </c>
+      <c r="P42">
+        <v>19.32019578269044</v>
+      </c>
+      <c r="Q42">
+        <v>7.338982636578304</v>
+      </c>
+      <c r="R42">
+        <v>60.51878385942287</v>
+      </c>
+      <c r="S42">
+        <v>3.608460148400319</v>
+      </c>
+      <c r="T42">
+        <v>0.00704289082962372</v>
+      </c>
+      <c r="U42">
+        <v>1.467394698580144</v>
+      </c>
+      <c r="V42">
+        <v>103.3550968681548</v>
+      </c>
+      <c r="W42">
+        <v>7.745326515110143</v>
+      </c>
+      <c r="X42">
+        <v>0.9473139428487153</v>
+      </c>
+      <c r="Y42">
+        <v>18.48949000308975</v>
+      </c>
+      <c r="Z42">
+        <v>18.07143444422415</v>
+      </c>
+      <c r="AA42">
+        <v>9.495101989701094</v>
+      </c>
+      <c r="AB42">
+        <v>5.301219879974324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="1">
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1943.202860112528</v>
+        <v>93430.94415100006</v>
       </c>
       <c r="C43">
-        <v>6.014626541718833</v>
+        <v>3913.531503070016</v>
       </c>
       <c r="D43">
-        <v>11.09538261335777</v>
+        <v>54.65656343086551</v>
       </c>
       <c r="E43">
-        <v>1.055716653567838</v>
+        <v>2.8899504259648</v>
       </c>
       <c r="F43">
-        <v>52.21945989537505</v>
+        <v>121.5106513900798</v>
       </c>
       <c r="G43">
-        <v>10.05151985649379</v>
+        <v>1943.202860108029</v>
       </c>
       <c r="H43">
-        <v>1.3517676214398</v>
+        <v>6.014626566570047</v>
       </c>
       <c r="I43">
-        <v>0.2194664338026777</v>
+        <v>11.09538279728438</v>
       </c>
       <c r="J43">
-        <v>110.1431089540437</v>
+        <v>52.21946076353358</v>
       </c>
       <c r="K43">
-        <v>46.29852224291687</v>
+        <v>10.05151997833076</v>
       </c>
       <c r="L43">
-        <v>19.88047251813176</v>
+        <v>1.351767632039507</v>
       </c>
       <c r="M43">
-        <v>6.888561906445343</v>
+        <v>0.2194664344254594</v>
       </c>
       <c r="N43">
-        <v>138.4859253767211</v>
+        <v>110.1431108264766</v>
       </c>
       <c r="O43">
-        <v>9.798842759307595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44">
-        <v>143.3115772735297</v>
+        <v>46.29852240174924</v>
+      </c>
+      <c r="P43">
+        <v>19.88047251744801</v>
+      </c>
+      <c r="Q43">
+        <v>6.88856188504726</v>
+      </c>
+      <c r="R43">
+        <v>67.44740788100694</v>
+      </c>
+      <c r="S43">
+        <v>3.748406637107531</v>
+      </c>
+      <c r="T43">
+        <v>0.001861559148676645</v>
+      </c>
+      <c r="U43">
+        <v>2.256692972316953</v>
+      </c>
+      <c r="V43">
+        <v>138.4859283945309</v>
+      </c>
+      <c r="W43">
+        <v>9.798842686277251</v>
+      </c>
+      <c r="X43">
+        <v>1.055716884741255</v>
+      </c>
+      <c r="Y43">
+        <v>17.43157884729369</v>
+      </c>
+      <c r="Z43">
+        <v>16.30982706613571</v>
+      </c>
+      <c r="AA43">
+        <v>8.13305014669726</v>
+      </c>
+      <c r="AB43">
+        <v>4.432115696732215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="1">
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>2077.7070861337</v>
+        <v>92811.6719666749</v>
       </c>
       <c r="C44">
-        <v>7.938821502264505</v>
+        <v>4290.270628349572</v>
       </c>
       <c r="D44">
-        <v>15.51741612620172</v>
+        <v>60.93629350421995</v>
       </c>
       <c r="E44">
-        <v>1.171440805112304</v>
+        <v>3.092695559029019</v>
       </c>
       <c r="F44">
-        <v>54.91587276562565</v>
+        <v>143.3115775870987</v>
       </c>
       <c r="G44">
-        <v>10.46852434293868</v>
+        <v>2077.707086128656</v>
       </c>
       <c r="H44">
-        <v>1.367377465011716</v>
+        <v>7.938821543487229</v>
       </c>
       <c r="I44">
-        <v>0.2016496815766296</v>
+        <v>15.51741647085531</v>
       </c>
       <c r="J44">
-        <v>130.0748459445154</v>
+        <v>54.91587363452857</v>
       </c>
       <c r="K44">
-        <v>51.62345049052025</v>
+        <v>10.46852450795748</v>
       </c>
       <c r="L44">
-        <v>20.38153433137645</v>
+        <v>1.367377481257505</v>
       </c>
       <c r="M44">
-        <v>6.444666783140694</v>
+        <v>0.2016496830173225</v>
       </c>
       <c r="N44">
-        <v>176.2933978397834</v>
+        <v>130.0748484284858</v>
       </c>
       <c r="O44">
-        <v>12.14945321440803</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
-        <v>166.0756834837321</v>
+        <v>51.62345077879934</v>
+      </c>
+      <c r="P44">
+        <v>20.38153436711906</v>
+      </c>
+      <c r="Q44">
+        <v>6.444666767839092</v>
+      </c>
+      <c r="R44">
+        <v>75.12525057208831</v>
+      </c>
+      <c r="S44">
+        <v>4.054744062955834</v>
+      </c>
+      <c r="T44">
+        <v>0.0004919693366605039</v>
+      </c>
+      <c r="U44">
+        <v>3.099428671519201</v>
+      </c>
+      <c r="V44">
+        <v>176.2934030431413</v>
+      </c>
+      <c r="W44">
+        <v>12.14945324389804</v>
+      </c>
+      <c r="X44">
+        <v>1.171441029326719</v>
+      </c>
+      <c r="Y44">
+        <v>16.61669167925497</v>
+      </c>
+      <c r="Z44">
+        <v>14.86945728619251</v>
+      </c>
+      <c r="AA44">
+        <v>6.994666315183794</v>
+      </c>
+      <c r="AB44">
+        <v>3.700560660196968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="1">
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>2216.46382010282</v>
+        <v>92192.25482914828</v>
       </c>
       <c r="C45">
-        <v>10.2791296592743</v>
+        <v>4654.702838775843</v>
       </c>
       <c r="D45">
-        <v>20.81866040055386</v>
+        <v>67.28137580699426</v>
       </c>
       <c r="E45">
-        <v>1.29474356228479</v>
+        <v>3.383213008833011</v>
       </c>
       <c r="F45">
-        <v>57.75742550828429</v>
+        <v>166.0756839814258</v>
       </c>
       <c r="G45">
-        <v>10.98847921820254</v>
+        <v>2216.463820096787</v>
       </c>
       <c r="H45">
-        <v>1.421787174136221</v>
+        <v>10.27912974321678</v>
       </c>
       <c r="I45">
-        <v>0.2013712068188478</v>
+        <v>20.81866094875295</v>
       </c>
       <c r="J45">
-        <v>150.6362428148413</v>
+        <v>57.75742630211474</v>
       </c>
       <c r="K45">
-        <v>56.93988232865487</v>
+        <v>10.98847939194376</v>
       </c>
       <c r="L45">
-        <v>20.933051016565</v>
+        <v>1.42178719624694</v>
       </c>
       <c r="M45">
-        <v>6.055005786617841</v>
+        <v>0.2013712090891357</v>
       </c>
       <c r="N45">
-        <v>217.1461381205556</v>
+        <v>150.6362457713306</v>
       </c>
       <c r="O45">
-        <v>14.89051805202366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
-        <v>189.9986573586188</v>
+        <v>56.93988274665595</v>
+      </c>
+      <c r="P45">
+        <v>20.93305109734611</v>
+      </c>
+      <c r="Q45">
+        <v>6.055005778562906</v>
+      </c>
+      <c r="R45">
+        <v>83.10082939893668</v>
+      </c>
+      <c r="S45">
+        <v>4.457505897010841</v>
+      </c>
+      <c r="T45">
+        <v>0.0001300105750684677</v>
+      </c>
+      <c r="U45">
+        <v>4.005095623191318</v>
+      </c>
+      <c r="V45">
+        <v>217.1461454949321</v>
+      </c>
+      <c r="W45">
+        <v>14.89051822626557</v>
+      </c>
+      <c r="X45">
+        <v>1.294743776143926</v>
+      </c>
+      <c r="Y45">
+        <v>16.02070467693451</v>
+      </c>
+      <c r="Z45">
+        <v>13.73218100582455</v>
+      </c>
+      <c r="AA45">
+        <v>6.063585869272413</v>
+      </c>
+      <c r="AB45">
+        <v>3.095759017397103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="1">
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>2390.434346835766</v>
+        <v>91543.47744474783</v>
       </c>
       <c r="C46">
-        <v>13.09962363924246</v>
+        <v>5005.609877332863</v>
       </c>
       <c r="D46">
-        <v>27.05689381290487</v>
+        <v>73.53538356066734</v>
       </c>
       <c r="E46">
-        <v>1.440344068758819</v>
+        <v>3.71907751615367</v>
       </c>
       <c r="F46">
-        <v>60.67140264539749</v>
+        <v>189.9986580952138</v>
       </c>
       <c r="G46">
-        <v>11.55050331067485</v>
+        <v>2390.43434682774</v>
       </c>
       <c r="H46">
-        <v>1.491472512474644</v>
+        <v>13.09962379251878</v>
       </c>
       <c r="I46">
-        <v>0.2082982999082885</v>
+        <v>27.0568945911481</v>
       </c>
       <c r="J46">
-        <v>171.7530053033395</v>
+        <v>60.67140333500276</v>
       </c>
       <c r="K46">
-        <v>62.2741672013934</v>
+        <v>11.5505034739489</v>
       </c>
       <c r="L46">
-        <v>21.5611463975599</v>
+        <v>1.491472536035705</v>
       </c>
       <c r="M46">
-        <v>5.730264109134244</v>
+        <v>0.2082983030375104</v>
       </c>
       <c r="N46">
-        <v>260.9805654302523</v>
+        <v>171.7530085703399</v>
       </c>
       <c r="O46">
-        <v>18.06164311316518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47">
-        <v>215.2579809387822</v>
+        <v>62.2741677304054</v>
+      </c>
+      <c r="P46">
+        <v>21.56114652151978</v>
+      </c>
+      <c r="Q46">
+        <v>5.73026410938818</v>
+      </c>
+      <c r="R46">
+        <v>91.08474040795875</v>
+      </c>
+      <c r="S46">
+        <v>4.908183800602053</v>
+      </c>
+      <c r="T46">
+        <v>3.434442293724169E-05</v>
+      </c>
+      <c r="U46">
+        <v>4.977357737745256</v>
+      </c>
+      <c r="V46">
+        <v>260.9805746077534</v>
+      </c>
+      <c r="W46">
+        <v>18.0616434561026</v>
+      </c>
+      <c r="X46">
+        <v>1.440344268806114</v>
+      </c>
+      <c r="Y46">
+        <v>15.610306706576</v>
+      </c>
+      <c r="Z46">
+        <v>12.85562817040137</v>
+      </c>
+      <c r="AA46">
+        <v>5.309976696927234</v>
+      </c>
+      <c r="AB46">
+        <v>2.599638758812491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="1">
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>2556.781750991315</v>
+        <v>90906.08509078292</v>
       </c>
       <c r="C47">
-        <v>16.45991702659624</v>
+        <v>5345.10400114299</v>
       </c>
       <c r="D47">
-        <v>34.27670057740296</v>
+        <v>79.63930871050664</v>
       </c>
       <c r="E47">
-        <v>1.638588303358001</v>
+        <v>4.075624390831284</v>
       </c>
       <c r="F47">
-        <v>63.64127612726417</v>
+        <v>215.2579819562875</v>
       </c>
       <c r="G47">
-        <v>12.13524975956132</v>
+        <v>2556.781750980444</v>
       </c>
       <c r="H47">
-        <v>1.567620114740661</v>
+        <v>16.45991727343268</v>
       </c>
       <c r="I47">
-        <v>0.2181363529703734</v>
+        <v>34.27670159697431</v>
       </c>
       <c r="J47">
-        <v>193.453196210692</v>
+        <v>63.6412766966867</v>
       </c>
       <c r="K47">
-        <v>67.67056446362406</v>
+        <v>12.13524990386256</v>
       </c>
       <c r="L47">
-        <v>22.28113086393509</v>
+        <v>1.567620137040471</v>
       </c>
       <c r="M47">
-        <v>5.472497039173145</v>
+        <v>0.2181363563956898</v>
       </c>
       <c r="N47">
-        <v>307.7276185242251</v>
+        <v>193.4531996265343</v>
       </c>
       <c r="O47">
-        <v>21.6868557685819</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48">
-        <v>245.281526904598</v>
+        <v>67.670565077948</v>
+      </c>
+      <c r="P47">
+        <v>22.28113102292741</v>
+      </c>
+      <c r="Q47">
+        <v>5.472497047466213</v>
+      </c>
+      <c r="R47">
+        <v>98.95246287516719</v>
+      </c>
+      <c r="S47">
+        <v>5.379477790106807</v>
+      </c>
+      <c r="T47">
+        <v>9.073340634674743E-06</v>
+      </c>
+      <c r="U47">
+        <v>6.016216202862404</v>
+      </c>
+      <c r="V47">
+        <v>307.7276289671626</v>
+      </c>
+      <c r="W47">
+        <v>21.68685628518789</v>
+      </c>
+      <c r="X47">
+        <v>1.638588486525596</v>
+      </c>
+      <c r="Y47">
+        <v>15.36685694519451</v>
+      </c>
+      <c r="Z47">
+        <v>12.2069743492569</v>
+      </c>
+      <c r="AA47">
+        <v>4.708509746554372</v>
+      </c>
+      <c r="AB47">
+        <v>2.196366575311402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="1">
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>2748.065398024892</v>
+        <v>90249.36842134336</v>
       </c>
       <c r="C48">
-        <v>20.41609530018077</v>
+        <v>5671.893637705878</v>
       </c>
       <c r="D48">
-        <v>42.51524464188271</v>
+        <v>85.55658975689856</v>
       </c>
       <c r="E48">
-        <v>1.930182845292486</v>
+        <v>4.437324216457846</v>
       </c>
       <c r="F48">
-        <v>66.64169926718424</v>
+        <v>245.2815282689276</v>
       </c>
       <c r="G48">
-        <v>12.73135938316837</v>
+        <v>2748.065398009545</v>
       </c>
       <c r="H48">
-        <v>1.646886630931315</v>
+        <v>20.41609566085415</v>
       </c>
       <c r="I48">
-        <v>0.2291532996033998</v>
+        <v>42.51524590058938</v>
       </c>
       <c r="J48">
-        <v>214.094542375637</v>
+        <v>66.64169970275231</v>
       </c>
       <c r="K48">
-        <v>72.41719182911565</v>
+        <v>12.73135950418813</v>
       </c>
       <c r="L48">
-        <v>22.78370343663627</v>
+        <v>1.646886650721667</v>
       </c>
       <c r="M48">
-        <v>5.207429318376395</v>
+        <v>0.2291533029043418</v>
       </c>
       <c r="N48">
-        <v>357.0156246002838</v>
+        <v>214.0945457565804</v>
       </c>
       <c r="O48">
-        <v>25.75550985343367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49">
-        <v>276.8165789558244</v>
+        <v>72.41719249446842</v>
+      </c>
+      <c r="P48">
+        <v>22.7837036182855</v>
+      </c>
+      <c r="Q48">
+        <v>5.207429333334465</v>
+      </c>
+      <c r="R48">
+        <v>106.6120497972375</v>
+      </c>
+      <c r="S48">
+        <v>5.853301319380519</v>
+      </c>
+      <c r="T48">
+        <v>2.396411446236763E-06</v>
+      </c>
+      <c r="U48">
+        <v>7.113420037070196</v>
+      </c>
+      <c r="V48">
+        <v>357.0156357055533</v>
+      </c>
+      <c r="W48">
+        <v>25.75551053250489</v>
+      </c>
+      <c r="X48">
+        <v>1.930183008954557</v>
+      </c>
+      <c r="Y48">
+        <v>14.95905531214771</v>
+      </c>
+      <c r="Z48">
+        <v>11.49477405924095</v>
+      </c>
+      <c r="AA48">
+        <v>4.146767236962571</v>
+      </c>
+      <c r="AB48">
+        <v>1.833089368695294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="1">
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>2998.54664736968</v>
+        <v>89541.85829705007</v>
       </c>
       <c r="C49">
-        <v>25.01725198692469</v>
+        <v>5983.891301463096</v>
       </c>
       <c r="D49">
-        <v>51.7989564079571</v>
+        <v>91.25436423972783</v>
       </c>
       <c r="E49">
-        <v>2.363236298228252</v>
+        <v>4.795068066209394</v>
       </c>
       <c r="F49">
-        <v>69.63861635499404</v>
+        <v>276.816580676622</v>
       </c>
       <c r="G49">
-        <v>13.33198249762596</v>
+        <v>2998.546647346664</v>
       </c>
       <c r="H49">
-        <v>1.727587929767447</v>
+        <v>25.01725247670267</v>
       </c>
       <c r="I49">
-        <v>0.2406934688509612</v>
+        <v>51.79895789153191</v>
       </c>
       <c r="J49">
-        <v>234.9815250325176</v>
+        <v>69.63861672187498</v>
       </c>
       <c r="K49">
-        <v>77.19428985600166</v>
+        <v>13.33198259227278</v>
       </c>
       <c r="L49">
-        <v>23.38388582619998</v>
+        <v>1.727587946422525</v>
       </c>
       <c r="M49">
-        <v>5.005595306378972</v>
+        <v>0.2406934718131456</v>
       </c>
       <c r="N49">
-        <v>408.3685620770036</v>
+        <v>234.9815282977469</v>
       </c>
       <c r="O49">
-        <v>30.23858466299326</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50">
-        <v>310.0146979210243</v>
+        <v>77.19429054371071</v>
+      </c>
+      <c r="P49">
+        <v>23.38388601996792</v>
+      </c>
+      <c r="Q49">
+        <v>5.0055953262599</v>
+      </c>
+      <c r="R49">
+        <v>114.0018020297274</v>
+      </c>
+      <c r="S49">
+        <v>6.319224576077396</v>
+      </c>
+      <c r="T49">
+        <v>6.325270450692367E-07</v>
+      </c>
+      <c r="U49">
+        <v>8.256951235343994</v>
+      </c>
+      <c r="V49">
+        <v>408.368573235001</v>
+      </c>
+      <c r="W49">
+        <v>30.2385854806177</v>
+      </c>
+      <c r="X49">
+        <v>2.363236440381665</v>
+      </c>
+      <c r="Y49">
+        <v>14.71859597601714</v>
+      </c>
+      <c r="Z49">
+        <v>10.99354779732101</v>
+      </c>
+      <c r="AA49">
+        <v>3.712266430163995</v>
+      </c>
+      <c r="AB49">
+        <v>1.54456603601563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="1">
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>3326.113269302993</v>
+        <v>88767.7686435483</v>
       </c>
       <c r="C50">
-        <v>30.31409656693899</v>
+        <v>6279.681601824263</v>
       </c>
       <c r="D50">
-        <v>62.18288119363691</v>
+        <v>96.70314213343035</v>
       </c>
       <c r="E50">
-        <v>2.803277518774494</v>
+        <v>5.143521579941135</v>
       </c>
       <c r="F50">
-        <v>72.64713353311146</v>
+        <v>310.0146999957786</v>
       </c>
       <c r="G50">
-        <v>13.93110514881442</v>
+        <v>3326.113269267536</v>
       </c>
       <c r="H50">
-        <v>1.808812647689901</v>
+        <v>30.3140971949077</v>
       </c>
       <c r="I50">
-        <v>0.2524654669085465</v>
+        <v>62.18288288414697</v>
       </c>
       <c r="J50">
-        <v>255.9780403566419</v>
+        <v>72.64713384709334</v>
       </c>
       <c r="K50">
-        <v>81.9776323438476</v>
+        <v>13.93110522704557</v>
       </c>
       <c r="L50">
-        <v>24.06353101167249</v>
+        <v>1.808812660777563</v>
       </c>
       <c r="M50">
-        <v>4.857589976696677</v>
+        <v>0.2524654694241805</v>
       </c>
       <c r="N50">
-        <v>461.3681985607602</v>
+        <v>255.9780434575008</v>
       </c>
       <c r="O50">
-        <v>35.0906258795662</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51">
-        <v>344.9907275012919</v>
+        <v>81.97763303540088</v>
+      </c>
+      <c r="P50">
+        <v>24.06353120748653</v>
+      </c>
+      <c r="Q50">
+        <v>4.857589999720808</v>
+      </c>
+      <c r="R50">
+        <v>121.0789384081319</v>
+      </c>
+      <c r="S50">
+        <v>6.771320738673842</v>
+      </c>
+      <c r="T50">
+        <v>1.668148392612897E-07</v>
+      </c>
+      <c r="U50">
+        <v>9.477608539330506</v>
+      </c>
+      <c r="V50">
+        <v>461.3682093524768</v>
+      </c>
+      <c r="W50">
+        <v>35.09062680290231</v>
+      </c>
+      <c r="X50">
+        <v>2.803277640096357</v>
+      </c>
+      <c r="Y50">
+        <v>14.61391891320046</v>
+      </c>
+      <c r="Z50">
+        <v>10.66173953232356</v>
+      </c>
+      <c r="AA50">
+        <v>3.380007405574853</v>
+      </c>
+      <c r="AB50">
+        <v>1.316179167603613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="1">
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>3709.549159511483</v>
+        <v>87947.67987041283</v>
       </c>
       <c r="C51">
-        <v>36.28994486659695</v>
+        <v>6560.190205187468</v>
       </c>
       <c r="D51">
-        <v>73.42768000986086</v>
+        <v>101.8951132207389</v>
       </c>
       <c r="E51">
-        <v>4.469159698187537</v>
+        <v>5.480106587375899</v>
       </c>
       <c r="F51">
-        <v>75.32941736347775</v>
+        <v>344.9907299192213</v>
       </c>
       <c r="G51">
-        <v>14.53292103040514</v>
+        <v>3709.549159458674</v>
       </c>
       <c r="H51">
-        <v>1.889955267259273</v>
+        <v>36.28994563947291</v>
       </c>
       <c r="I51">
-        <v>0.2643453328995742</v>
+        <v>73.42768188684187</v>
       </c>
       <c r="J51">
-        <v>277.0614010333215</v>
+        <v>75.32941762399807</v>
       </c>
       <c r="K51">
-        <v>86.77823806518066</v>
+        <v>14.5329210967818</v>
       </c>
       <c r="L51">
-        <v>24.81484712766781</v>
+        <v>1.889955278036395</v>
       </c>
       <c r="M51">
-        <v>4.756994746867387</v>
+        <v>0.2643453348998211</v>
       </c>
       <c r="N51">
-        <v>515.3687895279922</v>
+        <v>277.0614039350054</v>
       </c>
       <c r="O51">
-        <v>40.35946713923505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52">
-        <v>381.8418665973076</v>
+        <v>86.77823874868288</v>
+      </c>
+      <c r="P51">
+        <v>24.81484731955743</v>
+      </c>
+      <c r="Q51">
+        <v>4.756994771344448</v>
+      </c>
+      <c r="R51">
+        <v>127.8366141840013</v>
+      </c>
+      <c r="S51">
+        <v>7.207226253931084</v>
+      </c>
+      <c r="T51">
+        <v>4.396663316621151E-08</v>
+      </c>
+      <c r="U51">
+        <v>10.46575216995448</v>
+      </c>
+      <c r="V51">
+        <v>515.3687996833992</v>
+      </c>
+      <c r="W51">
+        <v>40.35946813403967</v>
+      </c>
+      <c r="X51">
+        <v>4.469159803616339</v>
+      </c>
+      <c r="Y51">
+        <v>14.62513912631401</v>
+      </c>
+      <c r="Z51">
+        <v>10.46915775681006</v>
+      </c>
+      <c r="AA51">
+        <v>3.131079779048123</v>
+      </c>
+      <c r="AB51">
+        <v>1.136666643867815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="1">
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>4115.388994998554</v>
+        <v>87113.01538527985</v>
       </c>
       <c r="C52">
-        <v>42.94592506688384</v>
+        <v>6827.489846088198</v>
       </c>
       <c r="D52">
-        <v>85.50732891571836</v>
+        <v>106.8438103996969</v>
       </c>
       <c r="E52">
-        <v>7.508942535058154</v>
+        <v>5.80379375107967</v>
       </c>
       <c r="F52">
-        <v>77.83951999725126</v>
+        <v>381.8418693421581</v>
       </c>
       <c r="G52">
-        <v>15.08476153646707</v>
+        <v>4115.388994924515</v>
       </c>
       <c r="H52">
-        <v>1.971615470838678</v>
+        <v>42.94592598639337</v>
       </c>
       <c r="I52">
-        <v>0.2762528584856078</v>
+        <v>85.50733095323233</v>
       </c>
       <c r="J52">
-        <v>298.1618111084749</v>
+        <v>77.83952019522654</v>
       </c>
       <c r="K52">
-        <v>91.57921556502875</v>
+        <v>15.08476159182247</v>
       </c>
       <c r="L52">
-        <v>25.63587254500055</v>
+        <v>1.97161547996354</v>
       </c>
       <c r="M52">
-        <v>4.698578511293887</v>
+        <v>0.2762528601235029</v>
       </c>
       <c r="N52">
-        <v>570.1816692884837</v>
+        <v>298.1618137827402</v>
       </c>
       <c r="O52">
-        <v>45.85821363716247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53">
-        <v>421.6297201164206</v>
+        <v>91.57921623114791</v>
+      </c>
+      <c r="P52">
+        <v>25.63587272957703</v>
+      </c>
+      <c r="Q52">
+        <v>4.698578536097553</v>
+      </c>
+      <c r="R52">
+        <v>134.291283192841</v>
+      </c>
+      <c r="S52">
+        <v>7.626237065289349</v>
+      </c>
+      <c r="T52">
+        <v>1.158506216547412E-08</v>
+      </c>
+      <c r="U52">
+        <v>11.38351335686357</v>
+      </c>
+      <c r="V52">
+        <v>570.1816786263165</v>
+      </c>
+      <c r="W52">
+        <v>45.8582146728673</v>
+      </c>
+      <c r="X52">
+        <v>7.508942650021681</v>
+      </c>
+      <c r="Y52">
+        <v>14.72550783225058</v>
+      </c>
+      <c r="Z52">
+        <v>10.39292047462721</v>
+      </c>
+      <c r="AA52">
+        <v>2.950229094235875</v>
+      </c>
+      <c r="AB52">
+        <v>0.9968848911519129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="1">
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>4581.721712515432</v>
+        <v>86229.16331441475</v>
       </c>
       <c r="C53">
-        <v>50.28902342204597</v>
+        <v>7079.042847224142</v>
       </c>
       <c r="D53">
-        <v>98.42309645891233</v>
+        <v>111.5357811975527</v>
       </c>
       <c r="E53">
-        <v>11.92722860168917</v>
+        <v>6.112417095627868</v>
       </c>
       <c r="F53">
-        <v>80.23494044379149</v>
+        <v>421.6297231729116</v>
       </c>
       <c r="G53">
-        <v>15.59525013694188</v>
+        <v>4581.721712413867</v>
       </c>
       <c r="H53">
-        <v>2.046619613320968</v>
+        <v>50.28902448490552</v>
       </c>
       <c r="I53">
-        <v>0.2881927064743859</v>
+        <v>98.4230986248504</v>
       </c>
       <c r="J53">
-        <v>318.9841822568053</v>
+        <v>80.23494056719407</v>
       </c>
       <c r="K53">
-        <v>96.28444104607982</v>
+        <v>15.59525017995897</v>
       </c>
       <c r="L53">
-        <v>26.47562373473588</v>
+        <v>2.046619620936473</v>
       </c>
       <c r="M53">
-        <v>3.99091726255776</v>
+        <v>0.2881927078537531</v>
       </c>
       <c r="N53">
-        <v>625.2610361644881</v>
+        <v>318.9841846751347</v>
       </c>
       <c r="O53">
-        <v>51.4820872844109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54">
-        <v>463.0934444015057</v>
+        <v>96.28444168506539</v>
+      </c>
+      <c r="P53">
+        <v>26.47562390935477</v>
+      </c>
+      <c r="Q53">
+        <v>3.990917283372861</v>
+      </c>
+      <c r="R53">
+        <v>140.4078829899745</v>
+      </c>
+      <c r="S53">
+        <v>8.024906787203477</v>
+      </c>
+      <c r="T53">
+        <v>3.050553774599197E-09</v>
+      </c>
+      <c r="U53">
+        <v>12.2903301705574</v>
+      </c>
+      <c r="V53">
+        <v>625.2610445466548</v>
+      </c>
+      <c r="W53">
+        <v>51.48208833135219</v>
+      </c>
+      <c r="X53">
+        <v>11.92722877527932</v>
+      </c>
+      <c r="Y53">
+        <v>14.8802326589909</v>
+      </c>
+      <c r="Z53">
+        <v>10.39516976091207</v>
+      </c>
+      <c r="AA53">
+        <v>2.82040826311618</v>
+      </c>
+      <c r="AB53">
+        <v>0.6926184552912489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="1">
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>4987.232683044291</v>
+        <v>85407.23389510193</v>
       </c>
       <c r="C54">
-        <v>58.31915595386652</v>
+        <v>7323.603727722968</v>
       </c>
       <c r="D54">
-        <v>112.1600651504278</v>
+        <v>116.0358549949769</v>
       </c>
       <c r="E54">
-        <v>17.77151262052351</v>
+        <v>6.40960662179055</v>
       </c>
       <c r="F54">
-        <v>82.59328783435618</v>
+        <v>463.0934477442459</v>
       </c>
       <c r="G54">
-        <v>16.08966052590962</v>
+        <v>4987.232682916284</v>
       </c>
       <c r="H54">
-        <v>2.116744387678691</v>
+        <v>58.31915715155382</v>
       </c>
       <c r="I54">
-        <v>0.2993943870617002</v>
+        <v>112.1600674067021</v>
       </c>
       <c r="J54">
-        <v>339.946265868264</v>
+        <v>82.59328778695318</v>
       </c>
       <c r="K54">
-        <v>101.0202202998284</v>
+        <v>16.08966055441777</v>
       </c>
       <c r="L54">
-        <v>27.36760296552091</v>
+        <v>2.11674439362745</v>
       </c>
       <c r="M54">
-        <v>3.521965554876195</v>
+        <v>0.2993943882147486</v>
       </c>
       <c r="N54">
-        <v>681.1651163541198</v>
+        <v>339.9462679338426</v>
       </c>
       <c r="O54">
-        <v>57.27723172899094</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55">
-        <v>506.4067191148184</v>
+        <v>101.0202209020376</v>
+      </c>
+      <c r="P54">
+        <v>27.36760312798091</v>
+      </c>
+      <c r="Q54">
+        <v>3.521965572348642</v>
+      </c>
+      <c r="R54">
+        <v>146.3021495474812</v>
+      </c>
+      <c r="S54">
+        <v>8.410145397498095</v>
+      </c>
+      <c r="T54">
+        <v>8.037769556799278E-10</v>
+      </c>
+      <c r="U54">
+        <v>13.20623317072224</v>
+      </c>
+      <c r="V54">
+        <v>681.1651236795074</v>
+      </c>
+      <c r="W54">
+        <v>57.27723275932782</v>
+      </c>
+      <c r="X54">
+        <v>17.77151292426559</v>
+      </c>
+      <c r="Y54">
+        <v>15.10147345896513</v>
+      </c>
+      <c r="Z54">
+        <v>10.47244913441678</v>
+      </c>
+      <c r="AA54">
+        <v>2.736166290402764</v>
+      </c>
+      <c r="AB54">
+        <v>0.5139293165823696</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="1">
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>5401.879274997108</v>
+        <v>84583.05833939651</v>
       </c>
       <c r="C55">
-        <v>67.04023410029407</v>
+        <v>7556.614132193269</v>
       </c>
       <c r="D55">
-        <v>126.7076069919323</v>
+        <v>120.3417038768508</v>
       </c>
       <c r="E55">
-        <v>25.11553783052364</v>
+        <v>6.693067526467544</v>
       </c>
       <c r="F55">
-        <v>84.88422132845687</v>
+        <v>506.4067227103941</v>
       </c>
       <c r="G55">
-        <v>16.56864267931792</v>
+        <v>5401.879274839809</v>
       </c>
       <c r="H55">
-        <v>2.184063313147875</v>
+        <v>67.04023541913536</v>
       </c>
       <c r="I55">
-        <v>0.3098099872841672</v>
+        <v>126.7076092870157</v>
       </c>
       <c r="J55">
-        <v>360.7557176176529</v>
+        <v>84.88422106744947</v>
       </c>
       <c r="K55">
-        <v>105.7014475620734</v>
+        <v>16.56864267726687</v>
       </c>
       <c r="L55">
-        <v>28.27817002725501</v>
+        <v>2.184063317140366</v>
       </c>
       <c r="M55">
-        <v>3.216073896909021</v>
+        <v>0.3098099881944132</v>
       </c>
       <c r="N55">
-        <v>737.1845184899096</v>
+        <v>360.7557192066593</v>
       </c>
       <c r="O55">
-        <v>63.186565918388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56">
-        <v>551.6569181571086</v>
+        <v>105.701448105453</v>
+      </c>
+      <c r="P55">
+        <v>28.27817017491038</v>
+      </c>
+      <c r="Q55">
+        <v>3.216073911450352</v>
+      </c>
+      <c r="R55">
+        <v>151.9260823649066</v>
+      </c>
+      <c r="S55">
+        <v>8.776906330390899</v>
+      </c>
+      <c r="T55">
+        <v>2.117577329028191E-10</v>
+      </c>
+      <c r="U55">
+        <v>14.11041804653559</v>
+      </c>
+      <c r="V55">
+        <v>737.1845244890047</v>
+      </c>
+      <c r="W55">
+        <v>63.1865669035915</v>
+      </c>
+      <c r="X55">
+        <v>25.1155383557856</v>
+      </c>
+      <c r="Y55">
+        <v>15.36540797620558</v>
+      </c>
+      <c r="Z55">
+        <v>10.60028798282639</v>
+      </c>
+      <c r="AA55">
+        <v>2.685059808882985</v>
+      </c>
+      <c r="AB55">
+        <v>0.4099740435366456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="1">
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>5804.869439407588</v>
+        <v>83775.43162091564</v>
       </c>
       <c r="C56">
-        <v>76.4436993202452</v>
+        <v>7779.976856875759</v>
       </c>
       <c r="D56">
-        <v>142.0392987362609</v>
+        <v>124.4656610926775</v>
       </c>
       <c r="E56">
-        <v>34.0545903206875</v>
+        <v>6.96455541369081</v>
       </c>
       <c r="F56">
-        <v>87.10452660778196</v>
+        <v>551.6569219602981</v>
       </c>
       <c r="G56">
-        <v>17.0356178072943</v>
+        <v>5804.869439220016</v>
       </c>
       <c r="H56">
-        <v>2.249393426850653</v>
+        <v>76.44370073917577</v>
       </c>
       <c r="I56">
-        <v>0.3197865177252624</v>
+        <v>142.0393010095683</v>
       </c>
       <c r="J56">
-        <v>381.4532920330612</v>
+        <v>87.10452611469736</v>
       </c>
       <c r="K56">
-        <v>110.3445677004174</v>
+        <v>17.03561776457696</v>
       </c>
       <c r="L56">
-        <v>29.20580818041564</v>
+        <v>2.249393426810278</v>
       </c>
       <c r="M56">
-        <v>3.024733031904103</v>
+        <v>0.3197865183535199</v>
       </c>
       <c r="N56">
-        <v>793.2678989197839</v>
+        <v>381.453293018214</v>
       </c>
       <c r="O56">
-        <v>69.20691006845055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57">
-        <v>598.9054028516841</v>
+        <v>110.3445681555642</v>
+      </c>
+      <c r="P56">
+        <v>29.20580830660651</v>
+      </c>
+      <c r="Q56">
+        <v>3.024733043720966</v>
+      </c>
+      <c r="R56">
+        <v>157.3153671972143</v>
+      </c>
+      <c r="S56">
+        <v>9.128361565429181</v>
+      </c>
+      <c r="T56">
+        <v>5.579416185170397E-11</v>
+      </c>
+      <c r="U56">
+        <v>14.99534537466475</v>
+      </c>
+      <c r="V56">
+        <v>793.2679032288395</v>
+      </c>
+      <c r="W56">
+        <v>69.20691097354553</v>
+      </c>
+      <c r="X56">
+        <v>34.05459115574967</v>
+      </c>
+      <c r="Y56">
+        <v>15.66546551673822</v>
+      </c>
+      <c r="Z56">
+        <v>10.76900696263714</v>
+      </c>
+      <c r="AA56">
+        <v>2.660371159579084</v>
+      </c>
+      <c r="AB56">
+        <v>0.3508932900289639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="1">
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>6234.679797391184</v>
+        <v>82949.64611445453</v>
       </c>
       <c r="C57">
-        <v>86.51805705734485</v>
+        <v>7990.886950119663</v>
       </c>
       <c r="D57">
-        <v>158.1286189417142</v>
+        <v>128.3913501799815</v>
       </c>
       <c r="E57">
-        <v>44.66961535892936</v>
+        <v>7.223135194811161</v>
       </c>
       <c r="F57">
-        <v>89.22240122635743</v>
+        <v>598.9054068033554</v>
       </c>
       <c r="G57">
-        <v>17.48491529782653</v>
+        <v>6234.67979716999</v>
       </c>
       <c r="H57">
-        <v>2.312778738993023</v>
+        <v>86.51805854835935</v>
       </c>
       <c r="I57">
-        <v>0.3294104472391516</v>
+        <v>158.1286211278127</v>
       </c>
       <c r="J57">
-        <v>401.8295145287274</v>
+        <v>89.2224004944165</v>
       </c>
       <c r="K57">
-        <v>114.8938207866308</v>
+        <v>17.48491520945625</v>
       </c>
       <c r="L57">
-        <v>30.13167612184423</v>
+        <v>2.312778733505865</v>
       </c>
       <c r="M57">
-        <v>2.911960586919989</v>
+        <v>0.3294104473137077</v>
       </c>
       <c r="N57">
-        <v>848.8761685576262</v>
+        <v>401.8295147878641</v>
       </c>
       <c r="O57">
-        <v>75.28574363828049</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58">
-        <v>648.1905267188365</v>
+        <v>114.8938211218657</v>
+      </c>
+      <c r="P57">
+        <v>30.13167621747601</v>
+      </c>
+      <c r="Q57">
+        <v>2.911960595567468</v>
+      </c>
+      <c r="R57">
+        <v>162.4373651398778</v>
+      </c>
+      <c r="S57">
+        <v>9.462531997748561</v>
+      </c>
+      <c r="T57">
+        <v>1.469600179564224E-11</v>
+      </c>
+      <c r="U57">
+        <v>15.84787293159238</v>
+      </c>
+      <c r="V57">
+        <v>848.8761707830212</v>
+      </c>
+      <c r="W57">
+        <v>75.28574442388633</v>
+      </c>
+      <c r="X57">
+        <v>44.66961657368159</v>
+      </c>
+      <c r="Y57">
+        <v>15.98643062145385</v>
+      </c>
+      <c r="Z57">
+        <v>10.96459439518915</v>
+      </c>
+      <c r="AA57">
+        <v>2.655223224758842</v>
+      </c>
+      <c r="AB57">
+        <v>0.3185387026510163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="1">
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>6616.476758258084</v>
+        <v>82172.74966447083</v>
       </c>
       <c r="C58">
-        <v>97.24344667715991</v>
+        <v>8195.89872677785</v>
       </c>
       <c r="D58">
-        <v>174.9416257490974</v>
+        <v>132.1640513663239</v>
       </c>
       <c r="E58">
-        <v>57.07021262206646</v>
+        <v>7.472220503542131</v>
       </c>
       <c r="F58">
-        <v>91.27833102561446</v>
+        <v>648.1905307453497</v>
       </c>
       <c r="G58">
-        <v>17.92178348983427</v>
+        <v>6616.476758006455</v>
       </c>
       <c r="H58">
-        <v>2.374367424744824</v>
+        <v>97.24344820637057</v>
       </c>
       <c r="I58">
-        <v>0.3388226239039683</v>
+        <v>174.94162778039</v>
       </c>
       <c r="J58">
-        <v>422.1678971128687</v>
+        <v>91.27833005377933</v>
       </c>
       <c r="K58">
-        <v>119.4324441700932</v>
+        <v>17.92178335370259</v>
       </c>
       <c r="L58">
-        <v>31.07344705832492</v>
+        <v>2.374367413091302</v>
       </c>
       <c r="M58">
-        <v>2.856080747386194</v>
+        <v>0.3388226232088922</v>
       </c>
       <c r="N58">
-        <v>904.5456903888401</v>
+        <v>422.1678965341733</v>
       </c>
       <c r="O58">
-        <v>81.47117630973179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59">
-        <v>699.5240457756764</v>
+        <v>119.4324443550398</v>
+      </c>
+      <c r="P58">
+        <v>31.07344711396965</v>
+      </c>
+      <c r="Q58">
+        <v>2.856080752030007</v>
+      </c>
+      <c r="R58">
+        <v>167.3799774839105</v>
+      </c>
+      <c r="S58">
+        <v>9.785507653010797</v>
+      </c>
+      <c r="T58">
+        <v>3.872853291666171E-12</v>
+      </c>
+      <c r="U58">
+        <v>16.67825643827163</v>
+      </c>
+      <c r="V58">
+        <v>904.5456901510483</v>
+      </c>
+      <c r="W58">
+        <v>81.47117693663957</v>
+      </c>
+      <c r="X58">
+        <v>57.07021426203226</v>
+      </c>
+      <c r="Y58">
+        <v>16.33209364234957</v>
+      </c>
+      <c r="Z58">
+        <v>11.18736718495033</v>
+      </c>
+      <c r="AA58">
+        <v>2.667123799788115</v>
+      </c>
+      <c r="AB58">
+        <v>0.3023923917402104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="1">
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>7128.162639375936</v>
+        <v>81286.02153243493</v>
       </c>
       <c r="C59">
-        <v>108.6062177515446</v>
+        <v>8379.863486871847</v>
       </c>
       <c r="D59">
-        <v>192.4565425287309</v>
+        <v>135.6822603459132</v>
       </c>
       <c r="E59">
-        <v>71.23744934748554</v>
+        <v>7.704653054417776</v>
       </c>
       <c r="F59">
-        <v>93.15481662558196</v>
+        <v>699.5240497895009</v>
       </c>
       <c r="G59">
-        <v>18.32719091357702</v>
+        <v>7128.162639083721</v>
       </c>
       <c r="H59">
-        <v>2.432818435129152</v>
+        <v>108.6062192803825</v>
       </c>
       <c r="I59">
-        <v>0.3477717190845608</v>
+        <v>192.4565443368823</v>
       </c>
       <c r="J59">
-        <v>441.5801783288927</v>
+        <v>93.15481556492519</v>
       </c>
       <c r="K59">
-        <v>123.7143595895346</v>
+        <v>18.32719072921891</v>
       </c>
       <c r="L59">
-        <v>31.9650424016905</v>
+        <v>2.432818417003643</v>
       </c>
       <c r="M59">
-        <v>2.834048985188626</v>
+        <v>0.3477717175002353</v>
       </c>
       <c r="N59">
-        <v>958.2800719088059</v>
+        <v>441.5801769393394</v>
       </c>
       <c r="O59">
-        <v>87.565369828605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60">
-        <v>752.8236315404588</v>
+        <v>123.714359595783</v>
+      </c>
+      <c r="P59">
+        <v>31.96504240841824</v>
+      </c>
+      <c r="Q59">
+        <v>2.834048984919574</v>
+      </c>
+      <c r="R59">
+        <v>171.9457110269464</v>
+      </c>
+      <c r="S59">
+        <v>10.08406585591989</v>
+      </c>
+      <c r="T59">
+        <v>1.019109776906352E-12</v>
+      </c>
+      <c r="U59">
+        <v>17.45077752644505</v>
+      </c>
+      <c r="V59">
+        <v>958.2800688622251</v>
+      </c>
+      <c r="W59">
+        <v>87.56537025828759</v>
+      </c>
+      <c r="X59">
+        <v>71.23745142887557</v>
+      </c>
+      <c r="Y59">
+        <v>16.66643416502598</v>
+      </c>
+      <c r="Z59">
+        <v>11.40976853751962</v>
+      </c>
+      <c r="AA59">
+        <v>2.687352073488135</v>
+      </c>
+      <c r="AB59">
+        <v>0.2953907104198633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="1">
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>7705.768399905081</v>
+        <v>80347.63926202458</v>
       </c>
       <c r="C60">
-        <v>120.5672813928296</v>
+        <v>8547.894910132673</v>
       </c>
       <c r="D60">
-        <v>210.6207614194451</v>
+        <v>138.9338536077453</v>
       </c>
       <c r="E60">
-        <v>87.21456667142728</v>
+        <v>7.923452002321847</v>
       </c>
       <c r="F60">
-        <v>94.86458573362418</v>
+        <v>752.8236354501844</v>
       </c>
       <c r="G60">
-        <v>18.70352501918727</v>
+        <v>7705.768399568481</v>
       </c>
       <c r="H60">
-        <v>2.487525741991864</v>
+        <v>120.5672828790869</v>
       </c>
       <c r="I60">
-        <v>0.356325914685484</v>
+        <v>210.6207629508247</v>
       </c>
       <c r="J60">
-        <v>460.2898089892954</v>
+        <v>94.86458464464471</v>
       </c>
       <c r="K60">
-        <v>127.8098194673501</v>
+        <v>18.70352481100872</v>
       </c>
       <c r="L60">
-        <v>32.82440919238081</v>
+        <v>2.487525717319583</v>
       </c>
       <c r="M60">
-        <v>2.836881162162851</v>
+        <v>0.3563259121579384</v>
       </c>
       <c r="N60">
-        <v>1010.474315306003</v>
+        <v>460.2898068722821</v>
       </c>
       <c r="O60">
-        <v>93.59758610664062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61">
-        <v>808.0290252452889</v>
+        <v>127.8098192890439</v>
+      </c>
+      <c r="P60">
+        <v>32.82440914252737</v>
+      </c>
+      <c r="Q60">
+        <v>2.83688115620818</v>
+      </c>
+      <c r="R60">
+        <v>176.1892424850159</v>
+      </c>
+      <c r="S60">
+        <v>10.36520247360085</v>
+      </c>
+      <c r="T60">
+        <v>2.679607922390612E-13</v>
+      </c>
+      <c r="U60">
+        <v>18.17545703481235</v>
+      </c>
+      <c r="V60">
+        <v>1010.474309461975</v>
+      </c>
+      <c r="W60">
+        <v>93.59758630473797</v>
+      </c>
+      <c r="X60">
+        <v>87.21456918389509</v>
+      </c>
+      <c r="Y60">
+        <v>16.99534521973595</v>
+      </c>
+      <c r="Z60">
+        <v>11.63464635826799</v>
+      </c>
+      <c r="AA60">
+        <v>2.715243844973723</v>
+      </c>
+      <c r="AB60">
+        <v>0.2939614717416879</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="1">
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>8430.450653526234</v>
+        <v>79286.8682578126</v>
       </c>
       <c r="C61">
-        <v>133.093243951964</v>
+        <v>8692.191605456854</v>
       </c>
       <c r="D61">
-        <v>229.3917013684454</v>
+        <v>141.849321451426</v>
       </c>
       <c r="E61">
-        <v>104.9240525916043</v>
+        <v>8.123533376184959</v>
       </c>
       <c r="F61">
-        <v>96.34236326167246</v>
+        <v>808.0290289630574</v>
       </c>
       <c r="G61">
-        <v>19.03732839989242</v>
+        <v>8430.450653137281</v>
       </c>
       <c r="H61">
-        <v>2.537543440470337</v>
+        <v>133.093245354475</v>
       </c>
       <c r="I61">
-        <v>0.3642417773133074</v>
+        <v>229.3917025839787</v>
       </c>
       <c r="J61">
-        <v>477.7682012440991</v>
+        <v>96.34236217299718</v>
       </c>
       <c r="K61">
-        <v>131.5792189044208</v>
+        <v>19.03732818263355</v>
       </c>
       <c r="L61">
-        <v>33.61480513337847</v>
+        <v>2.537543412391201</v>
       </c>
       <c r="M61">
-        <v>2.853174836383279</v>
+        <v>0.3642417738272958</v>
       </c>
       <c r="N61">
-        <v>1059.915737635852</v>
+        <v>477.7681985041736</v>
       </c>
       <c r="O61">
-        <v>99.4411517826253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62">
-        <v>865.0131804032873</v>
+        <v>131.5792185509701</v>
+      </c>
+      <c r="P61">
+        <v>33.61480502719611</v>
+      </c>
+      <c r="Q61">
+        <v>2.853174824166913</v>
+      </c>
+      <c r="R61">
+        <v>179.9847087160671</v>
+      </c>
+      <c r="S61">
+        <v>10.62029160228454</v>
+      </c>
+      <c r="T61">
+        <v>7.033523047901269E-14</v>
+      </c>
+      <c r="U61">
+        <v>18.83375671471314</v>
+      </c>
+      <c r="V61">
+        <v>1059.915729254157</v>
+      </c>
+      <c r="W61">
+        <v>99.441151731424</v>
+      </c>
+      <c r="X61">
+        <v>104.9240555046311</v>
+      </c>
+      <c r="Y61">
+        <v>17.29802180757433</v>
+      </c>
+      <c r="Z61">
+        <v>11.84671151710343</v>
+      </c>
+      <c r="AA61">
+        <v>2.745867377905361</v>
+      </c>
+      <c r="AB61">
+        <v>0.2954851897732297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="1">
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>9208.593978965526</v>
+        <v>78187.5596175684</v>
       </c>
       <c r="C62">
-        <v>146.1355402464958</v>
+        <v>8820.994144537621</v>
       </c>
       <c r="D62">
-        <v>248.7098501502676</v>
+        <v>144.46216427055</v>
       </c>
       <c r="E62">
-        <v>124.4004504750151</v>
+        <v>8.308022925250395</v>
       </c>
       <c r="F62">
-        <v>97.64132388009641</v>
+        <v>865.0131838500051</v>
       </c>
       <c r="G62">
-        <v>19.33513816294581</v>
+        <v>9208.593978525361</v>
       </c>
       <c r="H62">
-        <v>2.582598828930034</v>
+        <v>146.1355415272823</v>
       </c>
       <c r="I62">
-        <v>0.3715827757060507</v>
+        <v>248.7098510236063</v>
       </c>
       <c r="J62">
-        <v>494.4312845908642</v>
+        <v>97.64132280901731</v>
       </c>
       <c r="K62">
-        <v>135.1413451906227</v>
+        <v>19.33513794404042</v>
       </c>
       <c r="L62">
-        <v>34.36617522245702</v>
+        <v>2.582598799504681</v>
       </c>
       <c r="M62">
-        <v>2.880327314668099</v>
+        <v>0.3715827716627182</v>
       </c>
       <c r="N62">
-        <v>1107.452563819974</v>
+        <v>494.4312813345314</v>
       </c>
       <c r="O62">
-        <v>105.1753724134124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63">
-        <v>930.5190080170453</v>
+        <v>135.1413446781454</v>
+      </c>
+      <c r="P62">
+        <v>34.36617506518355</v>
+      </c>
+      <c r="Q62">
+        <v>2.880327296638397</v>
+      </c>
+      <c r="R62">
+        <v>183.4242961926676</v>
+      </c>
+      <c r="S62">
+        <v>10.85612481598715</v>
+      </c>
+      <c r="T62">
+        <v>1.844909258495966E-14</v>
+      </c>
+      <c r="U62">
+        <v>19.44490076462698</v>
+      </c>
+      <c r="V62">
+        <v>1107.452553275558</v>
+      </c>
+      <c r="W62">
+        <v>105.1753721113067</v>
+      </c>
+      <c r="X62">
+        <v>124.4004537489629</v>
+      </c>
+      <c r="Y62">
+        <v>17.58714395554761</v>
+      </c>
+      <c r="Z62">
+        <v>12.053829589794</v>
+      </c>
+      <c r="AA62">
+        <v>2.780194122587385</v>
+      </c>
+      <c r="AB62">
+        <v>0.2988564959902466</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="1">
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>10086.89845945232</v>
+        <v>77010.13126407926</v>
       </c>
       <c r="C63">
-        <v>159.6613645354567</v>
+        <v>8931.45367268928</v>
       </c>
       <c r="D63">
-        <v>268.5323837952075</v>
+        <v>146.7518432535772</v>
       </c>
       <c r="E63">
-        <v>145.5379419269609</v>
+        <v>8.473193495093552</v>
       </c>
       <c r="F63">
-        <v>97.07961801859234</v>
+        <v>930.5190110921338</v>
       </c>
       <c r="G63">
-        <v>19.59086762874865</v>
+        <v>10086.89845896152</v>
       </c>
       <c r="H63">
-        <v>2.622294937439878</v>
+        <v>159.6613656607528</v>
       </c>
       <c r="I63">
-        <v>0.3781468001587475</v>
+        <v>268.5323843105294</v>
       </c>
       <c r="J63">
-        <v>507.7891797395115</v>
+        <v>97.07961699097444</v>
       </c>
       <c r="K63">
-        <v>135.0846847623606</v>
+        <v>19.59086741252138</v>
       </c>
       <c r="L63">
-        <v>33.76536667442952</v>
+        <v>2.622294907741145</v>
       </c>
       <c r="M63">
-        <v>2.910092819406256</v>
+        <v>0.3781467958741005</v>
       </c>
       <c r="N63">
-        <v>1152.251982713641</v>
+        <v>507.7891760919267</v>
       </c>
       <c r="O63">
-        <v>110.7101184041431</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64">
-        <v>996.773997311793</v>
+        <v>135.0846841225803</v>
+      </c>
+      <c r="P63">
+        <v>33.76536647919512</v>
+      </c>
+      <c r="Q63">
+        <v>2.910092796679589</v>
+      </c>
+      <c r="R63">
+        <v>186.436811247678</v>
+      </c>
+      <c r="S63">
+        <v>11.06592581428846</v>
+      </c>
+      <c r="T63">
+        <v>4.833182079036904E-15</v>
+      </c>
+      <c r="U63">
+        <v>19.99777860336965</v>
+      </c>
+      <c r="V63">
+        <v>1152.251970431028</v>
+      </c>
+      <c r="W63">
+        <v>110.7101178621038</v>
+      </c>
+      <c r="X63">
+        <v>145.53794551405</v>
+      </c>
+      <c r="Y63">
+        <v>17.7278622384198</v>
+      </c>
+      <c r="Z63">
+        <v>11.65338627085829</v>
+      </c>
+      <c r="AA63">
+        <v>2.674013679688281</v>
+      </c>
+      <c r="AB63">
+        <v>0.3027491986881106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="1">
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>11143.48293537129</v>
+        <v>75687.05876445172</v>
       </c>
       <c r="C64">
-        <v>173.6297290057063</v>
+        <v>9013.48972702941</v>
       </c>
       <c r="D64">
-        <v>288.8061719158071</v>
+        <v>148.6526221024127</v>
       </c>
       <c r="E64">
-        <v>168.109407123165</v>
+        <v>8.614783294161962</v>
       </c>
       <c r="F64">
-        <v>97.30907187661921</v>
+        <v>996.7739999572717</v>
       </c>
       <c r="G64">
-        <v>19.52633645135051</v>
+        <v>11143.48293483008</v>
       </c>
       <c r="H64">
-        <v>2.655491543056199</v>
+        <v>173.6297299467125</v>
       </c>
       <c r="I64">
-        <v>0.3838084155489956</v>
+        <v>288.8061720665002</v>
       </c>
       <c r="J64">
-        <v>519.0242952305888</v>
+        <v>97.30907094660888</v>
       </c>
       <c r="K64">
-        <v>134.7252092665258</v>
+        <v>19.52633624294628</v>
       </c>
       <c r="L64">
-        <v>33.28640177334569</v>
+        <v>2.655491513706778</v>
       </c>
       <c r="M64">
-        <v>2.93842281387891</v>
+        <v>0.3838084112019399</v>
       </c>
       <c r="N64">
-        <v>1192.950853728883</v>
+        <v>519.024291341801</v>
       </c>
       <c r="O64">
-        <v>115.8944993612933</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65">
-        <v>1063.631310538949</v>
+        <v>134.7252085238142</v>
+      </c>
+      <c r="P64">
+        <v>33.28640154857383</v>
+      </c>
+      <c r="Q64">
+        <v>2.938422787723791</v>
+      </c>
+      <c r="R64">
+        <v>188.9194754914935</v>
+      </c>
+      <c r="S64">
+        <v>11.24307835270903</v>
+      </c>
+      <c r="T64">
+        <v>1.26336748143241E-15</v>
+      </c>
+      <c r="U64">
+        <v>20.47177657783167</v>
+      </c>
+      <c r="V64">
+        <v>1192.95084014881</v>
+      </c>
+      <c r="W64">
+        <v>115.8944986001925</v>
+      </c>
+      <c r="X64">
+        <v>168.1094109680189</v>
+      </c>
+      <c r="Y64">
+        <v>17.78463576112753</v>
+      </c>
+      <c r="Z64">
+        <v>11.36306472688114</v>
+      </c>
+      <c r="AA64">
+        <v>2.598825805450799</v>
+      </c>
+      <c r="AB64">
+        <v>0.3066285726584985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="1">
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>12270.15090015119</v>
+        <v>74314.06833063802</v>
       </c>
       <c r="C65">
-        <v>187.9843507341792</v>
+        <v>9077.403746188984</v>
       </c>
       <c r="D65">
-        <v>309.4605471359906</v>
+        <v>150.2017867687166</v>
       </c>
       <c r="E65">
-        <v>192.1298128756219</v>
+        <v>8.737842468067498</v>
       </c>
       <c r="F65">
-        <v>97.71505115410481</v>
+        <v>1063.631312714298</v>
       </c>
       <c r="G65">
-        <v>19.54057617775493</v>
+        <v>12270.15089956877</v>
       </c>
       <c r="H65">
-        <v>2.648160160533798</v>
+        <v>187.9843514676939</v>
       </c>
       <c r="I65">
-        <v>0.3886578699666348</v>
+        <v>309.4605469288128</v>
       </c>
       <c r="J65">
-        <v>529.0864665587699</v>
+        <v>97.71505034794771</v>
       </c>
       <c r="K65">
-        <v>134.288276303691</v>
+        <v>19.54057598679861</v>
       </c>
       <c r="L65">
-        <v>32.85954339073825</v>
+        <v>2.64816013221655</v>
       </c>
       <c r="M65">
-        <v>2.967086513330484</v>
+        <v>0.3886578656579958</v>
       </c>
       <c r="N65">
-        <v>1230.803694391127</v>
+        <v>529.086462579216</v>
       </c>
       <c r="O65">
-        <v>120.8464284268306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66">
-        <v>1131.023097301527</v>
+        <v>134.2882754869668</v>
+      </c>
+      <c r="P65">
+        <v>32.85954314465235</v>
+      </c>
+      <c r="Q65">
+        <v>2.967086484877741</v>
+      </c>
+      <c r="R65">
+        <v>190.9907010841766</v>
+      </c>
+      <c r="S65">
+        <v>11.39760415654968</v>
+      </c>
+      <c r="T65">
+        <v>3.299061807204831E-16</v>
+      </c>
+      <c r="U65">
+        <v>20.89210802614036</v>
+      </c>
+      <c r="V65">
+        <v>1230.803680029354</v>
+      </c>
+      <c r="W65">
+        <v>120.8464274728172</v>
+      </c>
+      <c r="X65">
+        <v>192.1298169240848</v>
+      </c>
+      <c r="Y65">
+        <v>17.82164202886338</v>
+      </c>
+      <c r="Z65">
+        <v>11.12638893757288</v>
+      </c>
+      <c r="AA65">
+        <v>2.54846550950831</v>
+      </c>
+      <c r="AB65">
+        <v>0.3105370590442137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="1">
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>13484.23185761921</v>
+        <v>72876.93871882449</v>
       </c>
       <c r="C66">
-        <v>202.6857770878838</v>
+        <v>9121.278196803387</v>
       </c>
       <c r="D66">
-        <v>330.4470070024732</v>
+        <v>151.4040868435382</v>
       </c>
       <c r="E66">
-        <v>217.4327741290095</v>
+        <v>8.839934034778427</v>
       </c>
       <c r="F66">
-        <v>98.04951174559972</v>
+        <v>1131.023098984267</v>
       </c>
       <c r="G66">
-        <v>19.59604717891361</v>
+        <v>13484.23185700695</v>
       </c>
       <c r="H66">
-        <v>2.648580751469201</v>
+        <v>202.6857775975856</v>
       </c>
       <c r="I66">
-        <v>0.3881696319692083</v>
+        <v>330.4470064579131</v>
       </c>
       <c r="J66">
-        <v>537.9221352714673</v>
+        <v>98.04951108140857</v>
       </c>
       <c r="K66">
-        <v>133.7938900269885</v>
+        <v>19.59604701152801</v>
       </c>
       <c r="L66">
-        <v>32.47647823961407</v>
+        <v>2.648580725457955</v>
       </c>
       <c r="M66">
-        <v>2.983714759583612</v>
+        <v>0.3881696277995312</v>
       </c>
       <c r="N66">
-        <v>1265.351624889703</v>
+        <v>537.9221313457266</v>
       </c>
       <c r="O66">
-        <v>125.5121213260743</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67">
-        <v>1198.870526607889</v>
+        <v>133.7938891675425</v>
+      </c>
+      <c r="P66">
+        <v>32.4764779817551</v>
+      </c>
+      <c r="Q66">
+        <v>2.983714729871268</v>
+      </c>
+      <c r="R66">
+        <v>192.6136406569717</v>
+      </c>
+      <c r="S66">
+        <v>11.52461777581295</v>
+      </c>
+      <c r="T66">
+        <v>8.6041226541714E-17</v>
+      </c>
+      <c r="U66">
+        <v>21.25465321271684</v>
+      </c>
+      <c r="V66">
+        <v>1265.351610302938</v>
+      </c>
+      <c r="W66">
+        <v>125.5121202134128</v>
+      </c>
+      <c r="X66">
+        <v>217.432778317617</v>
+      </c>
+      <c r="Y66">
+        <v>17.84456265147826</v>
+      </c>
+      <c r="Z66">
+        <v>10.9382797104823</v>
+      </c>
+      <c r="AA66">
+        <v>2.506430025768253</v>
+      </c>
+      <c r="AB66">
+        <v>0.3141089086225919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="1">
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>14686.30097492082</v>
+        <v>71461.97864470717</v>
       </c>
       <c r="C67">
-        <v>217.690244144033</v>
+        <v>9155.615910138069</v>
       </c>
       <c r="D67">
-        <v>351.7122489694863</v>
+        <v>152.351434540842</v>
       </c>
       <c r="E67">
-        <v>244.1076315601647</v>
+        <v>8.926225804012018</v>
       </c>
       <c r="F67">
-        <v>98.3136367206056</v>
+        <v>1198.870527793759</v>
       </c>
       <c r="G67">
-        <v>19.66008230802358</v>
+        <v>14686.3009742939</v>
       </c>
       <c r="H67">
-        <v>2.655659801832273</v>
+        <v>217.6902444215877</v>
       </c>
       <c r="I67">
-        <v>0.3881535410620453</v>
+        <v>351.7122481212227</v>
       </c>
       <c r="J67">
-        <v>546.1911695832713</v>
+        <v>98.31363621341103</v>
       </c>
       <c r="K67">
-        <v>133.4120372905162</v>
+        <v>19.66008216818929</v>
       </c>
       <c r="L67">
-        <v>32.18147825473608</v>
+        <v>2.65565977896969</v>
       </c>
       <c r="M67">
-        <v>2.994864907514376</v>
+        <v>0.3881535372057766</v>
       </c>
       <c r="N67">
-        <v>1297.988420932778</v>
+        <v>546.1911658403877</v>
       </c>
       <c r="O67">
-        <v>130.0335111518311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68">
-        <v>1275.963468254165</v>
+        <v>133.4120364184058</v>
+      </c>
+      <c r="P67">
+        <v>32.18147799453404</v>
+      </c>
+      <c r="Q67">
+        <v>2.994864877629605</v>
+      </c>
+      <c r="R67">
+        <v>193.9385474571605</v>
+      </c>
+      <c r="S67">
+        <v>11.63305443726328</v>
+      </c>
+      <c r="T67">
+        <v>2.243818082894197E-17</v>
+      </c>
+      <c r="U67">
+        <v>21.58599455416003</v>
+      </c>
+      <c r="V67">
+        <v>1297.988406652224</v>
+      </c>
+      <c r="W67">
+        <v>130.0335099199867</v>
+      </c>
+      <c r="X67">
+        <v>244.1076358184242</v>
+      </c>
+      <c r="Y67">
+        <v>17.87351483316267</v>
+      </c>
+      <c r="Z67">
+        <v>10.80472434215898</v>
+      </c>
+      <c r="AA67">
+        <v>2.475290857505603</v>
+      </c>
+      <c r="AB67">
+        <v>0.316034478492352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="1">
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>16036.57885910462</v>
+        <v>69931.84431860219</v>
       </c>
       <c r="C68">
-        <v>232.9722809979229</v>
+        <v>9163.352661176094</v>
       </c>
       <c r="D68">
-        <v>373.2258063973618</v>
+        <v>152.9427272757319</v>
       </c>
       <c r="E68">
-        <v>271.6114737458649</v>
+        <v>8.988138574449504</v>
       </c>
       <c r="F68">
-        <v>98.35230766321105</v>
+        <v>1275.963468893971</v>
       </c>
       <c r="G68">
-        <v>19.69327332998479</v>
+        <v>16036.57885847787</v>
       </c>
       <c r="H68">
-        <v>2.662553757486927</v>
+        <v>232.9722810432847</v>
       </c>
       <c r="I68">
-        <v>0.3888118669608362</v>
+        <v>373.2258052906698</v>
       </c>
       <c r="J68">
-        <v>545.685855857206</v>
+        <v>98.35230732845257</v>
       </c>
       <c r="K68">
-        <v>132.3777694967901</v>
+        <v>19.69327322105105</v>
       </c>
       <c r="L68">
-        <v>31.3639715755084</v>
+        <v>2.662553738342448</v>
       </c>
       <c r="M68">
-        <v>2.99611861149678</v>
+        <v>0.3888118635501421</v>
       </c>
       <c r="N68">
-        <v>1325.975259540307</v>
+        <v>545.6858524711785</v>
       </c>
       <c r="O68">
-        <v>134.113767130026</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69">
-        <v>1352.531824957101</v>
+        <v>132.3777686458533</v>
+      </c>
+      <c r="P68">
+        <v>31.3639713266994</v>
+      </c>
+      <c r="Q68">
+        <v>2.996118582596331</v>
+      </c>
+      <c r="R68">
+        <v>194.7439664907669</v>
+      </c>
+      <c r="S68">
+        <v>11.7068248397565</v>
+      </c>
+      <c r="T68">
+        <v>5.839291085597835E-18</v>
+      </c>
+      <c r="U68">
+        <v>21.84168410470326</v>
+      </c>
+      <c r="V68">
+        <v>1325.975246088995</v>
+      </c>
+      <c r="W68">
+        <v>134.1137658260829</v>
+      </c>
+      <c r="X68">
+        <v>271.6114779833292</v>
+      </c>
+      <c r="Y68">
+        <v>17.2920907351042</v>
+      </c>
+      <c r="Z68">
+        <v>10.61607034387149</v>
+      </c>
+      <c r="AA68">
+        <v>2.39369004619726</v>
+      </c>
+      <c r="AB68">
+        <v>0.3162670290352971</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="1">
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>17356.36408862589</v>
+        <v>68440.29079396928</v>
       </c>
       <c r="C69">
-        <v>248.4750299679644</v>
+        <v>9163.848414687878</v>
       </c>
       <c r="D69">
-        <v>394.9191345053936</v>
+        <v>153.2932888563242</v>
       </c>
       <c r="E69">
-        <v>300.2624076764289</v>
+        <v>9.03685601056725</v>
       </c>
       <c r="F69">
-        <v>98.29375212825721</v>
+        <v>1352.531825091213</v>
       </c>
       <c r="G69">
-        <v>19.70679855311283</v>
+        <v>17356.36408801598</v>
       </c>
       <c r="H69">
-        <v>2.667245345180676</v>
+        <v>248.4750297900321</v>
       </c>
       <c r="I69">
-        <v>0.389788547551779</v>
+        <v>394.9191331961828</v>
       </c>
       <c r="J69">
-        <v>545.326382234529</v>
+        <v>98.29375193993812</v>
       </c>
       <c r="K69">
-        <v>131.5134626346403</v>
+        <v>19.70679847803054</v>
       </c>
       <c r="L69">
-        <v>30.73666377373403</v>
+        <v>2.667245330196803</v>
       </c>
       <c r="M69">
-        <v>2.999474942071456</v>
+        <v>0.3897885446732987</v>
       </c>
       <c r="N69">
-        <v>1352.175891470668</v>
+        <v>545.3263792691513</v>
       </c>
       <c r="O69">
-        <v>138.0495474845478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70">
-        <v>1428.69639636964</v>
+        <v>131.5134618318482</v>
+      </c>
+      <c r="P69">
+        <v>30.73666354333152</v>
+      </c>
+      <c r="Q69">
+        <v>2.99947491509294</v>
+      </c>
+      <c r="R69">
+        <v>195.2994203161182</v>
+      </c>
+      <c r="S69">
+        <v>11.76665405174758</v>
+      </c>
+      <c r="T69">
+        <v>1.519744299671512E-18</v>
+      </c>
+      <c r="U69">
+        <v>22.07124810671946</v>
+      </c>
+      <c r="V69">
+        <v>1352.175879292331</v>
+      </c>
+      <c r="W69">
+        <v>138.0495461554472</v>
+      </c>
+      <c r="X69">
+        <v>300.2624118009016</v>
+      </c>
+      <c r="Y69">
+        <v>16.84541117282797</v>
+      </c>
+      <c r="Z69">
+        <v>10.48254245475386</v>
+      </c>
+      <c r="AA69">
+        <v>2.337242111510006</v>
+      </c>
+      <c r="AB69">
+        <v>0.3166510677722325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="1">
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>18840.96600506518</v>
+        <v>66821.12025057853</v>
       </c>
       <c r="C70">
-        <v>264.1774275378569</v>
+        <v>9135.46674492364</v>
       </c>
       <c r="D70">
-        <v>416.7672524846943</v>
+        <v>153.2751195182377</v>
       </c>
       <c r="E70">
-        <v>329.2613783280402</v>
+        <v>9.060505773534373</v>
       </c>
       <c r="F70">
-        <v>97.97743102897044</v>
+        <v>1428.696396050188</v>
       </c>
       <c r="G70">
-        <v>19.67422873735574</v>
+        <v>18840.96600449141</v>
       </c>
       <c r="H70">
-        <v>2.667231794504135</v>
+        <v>264.1774271537688</v>
       </c>
       <c r="I70">
-        <v>0.3902198434637337</v>
+        <v>416.7672510335624</v>
       </c>
       <c r="J70">
-        <v>543.6213898069865</v>
+        <v>97.97743098556772</v>
       </c>
       <c r="K70">
-        <v>130.439426242394</v>
+        <v>19.67422869257867</v>
       </c>
       <c r="L70">
-        <v>30.17389404430102</v>
+        <v>2.667231784094619</v>
       </c>
       <c r="M70">
-        <v>2.995979686684901</v>
+        <v>0.3902198411872168</v>
       </c>
       <c r="N70">
-        <v>1373.06855416192</v>
+        <v>543.6213873131458</v>
       </c>
       <c r="O70">
-        <v>141.4541629310281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71">
-        <v>1504.347396077038</v>
+        <v>130.4394255104056</v>
+      </c>
+      <c r="P70">
+        <v>30.17389383932168</v>
+      </c>
+      <c r="Q70">
+        <v>2.995979662512559</v>
+      </c>
+      <c r="R70">
+        <v>195.3087105543962</v>
+      </c>
+      <c r="S70">
+        <v>11.79022767454163</v>
+      </c>
+      <c r="T70">
+        <v>3.945644578623646E-19</v>
+      </c>
+      <c r="U70">
+        <v>22.21804632712139</v>
+      </c>
+      <c r="V70">
+        <v>1373.068543592928</v>
+      </c>
+      <c r="W70">
+        <v>141.4541616283922</v>
+      </c>
+      <c r="X70">
+        <v>329.2613822288087</v>
+      </c>
+      <c r="Y70">
+        <v>16.45874656600323</v>
+      </c>
+      <c r="Z70">
+        <v>10.36162848048064</v>
+      </c>
+      <c r="AA70">
+        <v>2.29258862626092</v>
+      </c>
+      <c r="AB70">
+        <v>0.3164671692151516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="1">
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>20510.81581559637</v>
+        <v>65058.79350867806</v>
       </c>
       <c r="C71">
-        <v>280.0177383160723</v>
+        <v>9075.277591302298</v>
       </c>
       <c r="D71">
-        <v>438.6957987384048</v>
+        <v>152.7957559168975</v>
       </c>
       <c r="E71">
-        <v>358.1849735137725</v>
+        <v>9.05881938928904</v>
       </c>
       <c r="F71">
-        <v>97.3507415095891</v>
+        <v>1504.34739536599</v>
       </c>
       <c r="G71">
-        <v>19.58690260481267</v>
+        <v>20510.81581508023</v>
       </c>
       <c r="H71">
-        <v>2.660724045726091</v>
+        <v>280.0177377503743</v>
       </c>
       <c r="I71">
-        <v>0.3899307695052409</v>
+        <v>438.6957972068205</v>
       </c>
       <c r="J71">
-        <v>540.3338773860997</v>
+        <v>97.35074161208206</v>
       </c>
       <c r="K71">
-        <v>129.0915042808091</v>
+        <v>19.58690258934712</v>
       </c>
       <c r="L71">
-        <v>29.63810062991995</v>
+        <v>2.660724039451592</v>
       </c>
       <c r="M71">
-        <v>2.984937161544623</v>
+        <v>0.389930767891791</v>
       </c>
       <c r="N71">
-        <v>1388.046059368737</v>
+        <v>540.3338754025258</v>
       </c>
       <c r="O71">
-        <v>144.2431487056114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72">
-        <v>1579.329028877927</v>
+        <v>129.0915036379048</v>
+      </c>
+      <c r="P71">
+        <v>29.63810045497544</v>
+      </c>
+      <c r="Q71">
+        <v>2.984937140933957</v>
+      </c>
+      <c r="R71">
+        <v>194.7186552155306</v>
+      </c>
+      <c r="S71">
+        <v>11.77936604894242</v>
+      </c>
+      <c r="T71">
+        <v>1.021463687134165E-19</v>
+      </c>
+      <c r="U71">
+        <v>22.27330506776722</v>
+      </c>
+      <c r="V71">
+        <v>1388.046050633772</v>
+      </c>
+      <c r="W71">
+        <v>144.2431474774052</v>
+      </c>
+      <c r="X71">
+        <v>358.1849770859153</v>
+      </c>
+      <c r="Y71">
+        <v>16.1048188111767</v>
+      </c>
+      <c r="Z71">
+        <v>10.24032658000026</v>
+      </c>
+      <c r="AA71">
+        <v>2.254572198232799</v>
+      </c>
+      <c r="AB71">
+        <v>0.3156445460625074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="1">
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>22192.93061155646</v>
+        <v>63300.90027499778</v>
       </c>
       <c r="C72">
-        <v>295.9290062246367</v>
+        <v>9002.961930946742</v>
       </c>
       <c r="D72">
-        <v>460.623839512471</v>
+        <v>151.9826861546693</v>
       </c>
       <c r="E72">
-        <v>387.4366767812904</v>
+        <v>9.04052060399375</v>
       </c>
       <c r="F72">
-        <v>96.56395912741101</v>
+        <v>1579.329027844612</v>
       </c>
       <c r="G72">
-        <v>19.46179425048707</v>
+        <v>22192.93061111268</v>
       </c>
       <c r="H72">
-        <v>2.648631098905405</v>
+        <v>295.929005507481</v>
       </c>
       <c r="I72">
-        <v>0.3889791250772201</v>
+        <v>460.6238379600913</v>
       </c>
       <c r="J72">
-        <v>536.679557434192</v>
+        <v>96.56395937303094</v>
       </c>
       <c r="K72">
-        <v>127.747446226609</v>
+        <v>19.46179426419632</v>
       </c>
       <c r="L72">
-        <v>29.17462308127203</v>
+        <v>2.648631096604402</v>
       </c>
       <c r="M72">
-        <v>2.973337405785921</v>
+        <v>0.3889791240756826</v>
       </c>
       <c r="N72">
-        <v>1400.196480404675</v>
+        <v>536.6795559844643</v>
       </c>
       <c r="O72">
-        <v>146.7438061192148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73">
-        <v>1654.023774879447</v>
+        <v>127.7474456864417</v>
+      </c>
+      <c r="P72">
+        <v>29.17462293902016</v>
+      </c>
+      <c r="Q72">
+        <v>2.973337389103633</v>
+      </c>
+      <c r="R72">
+        <v>193.773814029</v>
+      </c>
+      <c r="S72">
+        <v>11.75020707226814</v>
+      </c>
+      <c r="T72">
+        <v>2.642601605414259E-20</v>
+      </c>
+      <c r="U72">
+        <v>22.28972906428057</v>
+      </c>
+      <c r="V72">
+        <v>1400.196473627147</v>
+      </c>
+      <c r="W72">
+        <v>146.7438050035346</v>
+      </c>
+      <c r="X72">
+        <v>387.4366799450427</v>
+      </c>
+      <c r="Y72">
+        <v>15.80040605162916</v>
+      </c>
+      <c r="Z72">
+        <v>10.13317934170708</v>
+      </c>
+      <c r="AA72">
+        <v>2.224621558620033</v>
+      </c>
+      <c r="AB72">
+        <v>0.314863321619169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="1">
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>24030.92572379325</v>
+        <v>61426.37076438831</v>
       </c>
       <c r="C73">
-        <v>311.8811877407866</v>
+        <v>8899.998592763448</v>
       </c>
       <c r="D73">
-        <v>482.5140691381748</v>
+        <v>150.7544022762261</v>
       </c>
       <c r="E73">
-        <v>416.1177728354817</v>
+        <v>8.994948955950564</v>
       </c>
       <c r="F73">
-        <v>97.04936879499169</v>
+        <v>1654.023773596652</v>
       </c>
       <c r="G73">
-        <v>19.28263887564563</v>
+        <v>24030.92572344069</v>
       </c>
       <c r="H73">
-        <v>2.629763385796357</v>
+        <v>311.8811869057708</v>
       </c>
       <c r="I73">
-        <v>0.3869883062707947</v>
+        <v>482.5140676213209</v>
       </c>
       <c r="J73">
-        <v>532.0100237269165</v>
+        <v>97.04936919101235</v>
       </c>
       <c r="K73">
-        <v>126.0643345401406</v>
+        <v>19.28263891801918</v>
       </c>
       <c r="L73">
-        <v>28.6730271030133</v>
+        <v>2.629763387442931</v>
       </c>
       <c r="M73">
-        <v>2.951767420592395</v>
+        <v>0.3869883058545781</v>
       </c>
       <c r="N73">
-        <v>1406.610482025382</v>
+        <v>532.0100228414683</v>
       </c>
       <c r="O73">
-        <v>148.6285836608349</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74">
-        <v>1727.896661588722</v>
+        <v>126.0643341150923</v>
+      </c>
+      <c r="P73">
+        <v>28.67302699578673</v>
+      </c>
+      <c r="Q73">
+        <v>2.951767408055944</v>
+      </c>
+      <c r="R73">
+        <v>192.240042435386</v>
+      </c>
+      <c r="S73">
+        <v>11.68276843472677</v>
+      </c>
+      <c r="T73">
+        <v>6.817960363317252E-21</v>
+      </c>
+      <c r="U73">
+        <v>22.22187889256953</v>
+      </c>
+      <c r="V73">
+        <v>1406.610477285557</v>
+      </c>
+      <c r="W73">
+        <v>148.6285826903296</v>
+      </c>
+      <c r="X73">
+        <v>416.1177755244898</v>
+      </c>
+      <c r="Y73">
+        <v>15.47777307949579</v>
+      </c>
+      <c r="Z73">
+        <v>10.00385176894994</v>
+      </c>
+      <c r="AA73">
+        <v>2.19241396518621</v>
+      </c>
+      <c r="AB73">
+        <v>0.3130648120443346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="1">
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>26022.35486241812</v>
+        <v>59439.46961498449</v>
       </c>
       <c r="C74">
-        <v>327.8112190970126</v>
+        <v>8768.09287275146</v>
       </c>
       <c r="D74">
-        <v>504.2902425537755</v>
+        <v>274.1463005989576</v>
       </c>
       <c r="E74">
-        <v>443.8407867136503</v>
+        <v>15.26460984264037</v>
       </c>
       <c r="F74">
-        <v>144.8823392159779</v>
+        <v>1727.896660135744</v>
       </c>
       <c r="G74">
-        <v>34.52319395189298</v>
+        <v>26022.35486217361</v>
       </c>
       <c r="H74">
-        <v>8.110655624943602</v>
+        <v>327.8112181799855</v>
       </c>
       <c r="I74">
-        <v>1.196218455376951</v>
+        <v>504.2902411247888</v>
       </c>
       <c r="J74">
-        <v>474.2795680376036</v>
+        <v>144.8823402141599</v>
       </c>
       <c r="K74">
-        <v>106.9965225322334</v>
+        <v>34.52319408075653</v>
       </c>
       <c r="L74">
-        <v>22.15056124792603</v>
+        <v>8.110655642141969</v>
       </c>
       <c r="M74">
-        <v>2.007464974579508</v>
+        <v>1.196218455880368</v>
       </c>
       <c r="N74">
-        <v>1417.405071794431</v>
+        <v>474.2795672730251</v>
       </c>
       <c r="O74">
-        <v>150.4767581649239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75">
-        <v>1794.075899877715</v>
+        <v>106.9965221714756</v>
+      </c>
+      <c r="P74">
+        <v>22.15056116509109</v>
+      </c>
+      <c r="Q74">
+        <v>2.007464966053603</v>
+      </c>
+      <c r="R74">
+        <v>52.01671745780355</v>
+      </c>
+      <c r="S74">
+        <v>3.313894565633353</v>
+      </c>
+      <c r="T74">
+        <v>4.005877498138335</v>
+      </c>
+      <c r="U74">
+        <v>22.57768351263142</v>
+      </c>
+      <c r="V74">
+        <v>1417.405069253455</v>
+      </c>
+      <c r="W74">
+        <v>150.4767573698016</v>
+      </c>
+      <c r="X74">
+        <v>443.8407888838841</v>
+      </c>
+      <c r="Y74">
+        <v>17.91208960184339</v>
+      </c>
+      <c r="Z74">
+        <v>11.91696929748563</v>
+      </c>
+      <c r="AA74">
+        <v>2.648353251224612</v>
+      </c>
+      <c r="AB74">
+        <v>0.4128955477045935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="1">
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>27984.47415503137</v>
+        <v>57493.82133477217</v>
       </c>
       <c r="C75">
-        <v>342.3953867661807</v>
+        <v>8629.324451081266</v>
       </c>
       <c r="D75">
-        <v>521.8935477553364</v>
+        <v>370.1412144430183</v>
       </c>
       <c r="E75">
-        <v>471.3173362275904</v>
+        <v>26.82371839866101</v>
       </c>
       <c r="F75">
-        <v>177.148132885698</v>
+        <v>1794.075898291419</v>
       </c>
       <c r="G75">
-        <v>53.42310558357479</v>
+        <v>27984.47415489794</v>
       </c>
       <c r="H75">
-        <v>15.03240604044073</v>
+        <v>342.3953857896373</v>
       </c>
       <c r="I75">
-        <v>3.689884879401156</v>
+        <v>521.8935464060511</v>
       </c>
       <c r="J75">
-        <v>421.5099371321319</v>
+        <v>177.1481344373896</v>
       </c>
       <c r="K75">
-        <v>90.77137490778151</v>
+        <v>53.42310591562697</v>
       </c>
       <c r="L75">
-        <v>17.10323209371835</v>
+        <v>15.03240609457976</v>
       </c>
       <c r="M75">
-        <v>1.364477823089397</v>
+        <v>3.689884886468041</v>
       </c>
       <c r="N75">
-        <v>1345.159617106596</v>
+        <v>421.5099364593167</v>
       </c>
       <c r="O75">
-        <v>148.0582050299215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76">
-        <v>1855.783973315185</v>
+        <v>90.77137460172968</v>
+      </c>
+      <c r="P75">
+        <v>17.10323202975855</v>
+      </c>
+      <c r="Q75">
+        <v>1.364477817294323</v>
+      </c>
+      <c r="R75">
+        <v>14.10243800641937</v>
+      </c>
+      <c r="S75">
+        <v>0.8984417886339232</v>
+      </c>
+      <c r="T75">
+        <v>8.311883452187821</v>
+      </c>
+      <c r="U75">
+        <v>23.15528639344404</v>
+      </c>
+      <c r="V75">
+        <v>1345.159615638173</v>
+      </c>
+      <c r="W75">
+        <v>148.0582043805903</v>
+      </c>
+      <c r="X75">
+        <v>471.317337862103</v>
+      </c>
+      <c r="Y75">
+        <v>22.78142653462784</v>
+      </c>
+      <c r="Z75">
+        <v>16.9883560923426</v>
+      </c>
+      <c r="AA75">
+        <v>5.278856972224927</v>
+      </c>
+      <c r="AB75">
+        <v>0.9558965568175751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="1">
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>30219.98542972176</v>
+        <v>55338.3047705206</v>
       </c>
       <c r="C76">
-        <v>356.2880704242734</v>
+        <v>8446.631906989191</v>
       </c>
       <c r="D76">
-        <v>537.1134464342609</v>
+        <v>442.7909710018983</v>
       </c>
       <c r="E76">
-        <v>496.3751983953315</v>
+        <v>41.26748342954791</v>
       </c>
       <c r="F76">
-        <v>196.5333364145025</v>
+        <v>1855.783971639307</v>
       </c>
       <c r="G76">
-        <v>68.77094752493302</v>
+        <v>30219.98542971869</v>
       </c>
       <c r="H76">
-        <v>23.56468193250133</v>
+        <v>356.2880694154917</v>
       </c>
       <c r="I76">
-        <v>7.369984463429393</v>
+        <v>537.113445172711</v>
       </c>
       <c r="J76">
-        <v>372.3030524561085</v>
+        <v>196.5333384445347</v>
       </c>
       <c r="K76">
-        <v>76.57474784796645</v>
+        <v>68.77094808306107</v>
       </c>
       <c r="L76">
-        <v>13.12463345139686</v>
+        <v>23.56468207322904</v>
       </c>
       <c r="M76">
-        <v>0.9209460252962265</v>
+        <v>7.369984487683976</v>
       </c>
       <c r="N76">
-        <v>1256.599725888782</v>
+        <v>372.3030518636413</v>
       </c>
       <c r="O76">
-        <v>145.0900598317044</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77">
-        <v>1915.849204814418</v>
+        <v>76.57474758978108</v>
+      </c>
+      <c r="P76">
+        <v>13.12463340231556</v>
+      </c>
+      <c r="Q76">
+        <v>0.9209460213848766</v>
+      </c>
+      <c r="R76">
+        <v>3.803868597696143</v>
+      </c>
+      <c r="S76">
+        <v>0.2423378500289722</v>
+      </c>
+      <c r="T76">
+        <v>11.91005156691955</v>
+      </c>
+      <c r="U76">
+        <v>22.29906956509227</v>
+      </c>
+      <c r="V76">
+        <v>1256.599725281702</v>
+      </c>
+      <c r="W76">
+        <v>145.0900593382919</v>
+      </c>
+      <c r="X76">
+        <v>496.3751994899385</v>
+      </c>
+      <c r="Y76">
+        <v>28.41594376700526</v>
+      </c>
+      <c r="Z76">
+        <v>25.15591847419164</v>
+      </c>
+      <c r="AA76">
+        <v>10.01868533490734</v>
+      </c>
+      <c r="AB76">
+        <v>2.760760881023332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="1">
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>32809.91858186909</v>
+        <v>52909.10043402634</v>
       </c>
       <c r="C77">
-        <v>369.5233249749093</v>
+        <v>8208.971068266657</v>
       </c>
       <c r="D77">
-        <v>550.5676168022289</v>
+        <v>494.9138960553566</v>
       </c>
       <c r="E77">
-        <v>517.7306612234802</v>
+        <v>56.71232338026673</v>
       </c>
       <c r="F77">
-        <v>206.2537866009767</v>
+        <v>1915.849203108757</v>
       </c>
       <c r="G77">
-        <v>78.95034685137769</v>
+        <v>32809.9185820186</v>
       </c>
       <c r="H77">
-        <v>30.79897617359054</v>
+        <v>369.5233239610537</v>
       </c>
       <c r="I77">
-        <v>12.08910554087337</v>
+        <v>550.567615638587</v>
       </c>
       <c r="J77">
-        <v>326.3743085114868</v>
+        <v>206.2537890301532</v>
       </c>
       <c r="K77">
-        <v>64.10792787305269</v>
+        <v>78.95034761827387</v>
       </c>
       <c r="L77">
-        <v>9.987469576927445</v>
+        <v>30.79897641649313</v>
       </c>
       <c r="M77">
-        <v>0.6156872892739103</v>
+        <v>12.08910560592914</v>
       </c>
       <c r="N77">
-        <v>1168.00619085224</v>
+        <v>326.3743079925916</v>
       </c>
       <c r="O77">
-        <v>141.7651855537123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78">
-        <v>1985.6649251039</v>
+        <v>64.10792765690141</v>
+      </c>
+      <c r="P77">
+        <v>9.987469539577985</v>
+      </c>
+      <c r="Q77">
+        <v>0.6156872866590248</v>
+      </c>
+      <c r="R77">
+        <v>1.018942987533713</v>
+      </c>
+      <c r="S77">
+        <v>0.0649150848824202</v>
+      </c>
+      <c r="T77">
+        <v>14.65258869152938</v>
+      </c>
+      <c r="U77">
+        <v>20.88344588007144</v>
+      </c>
+      <c r="V77">
+        <v>1168.00619110267</v>
+      </c>
+      <c r="W77">
+        <v>141.765185227738</v>
+      </c>
+      <c r="X77">
+        <v>517.7306617988418</v>
+      </c>
+      <c r="Y77">
+        <v>33.71757452845698</v>
+      </c>
+      <c r="Z77">
+        <v>34.58654956562734</v>
+      </c>
+      <c r="AA77">
+        <v>16.85626226365995</v>
+      </c>
+      <c r="AB77">
+        <v>5.983625266647362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="1">
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>35259.60401726916</v>
+        <v>50617.00808736088</v>
       </c>
       <c r="C78">
-        <v>382.0944003734002</v>
+        <v>7980.195822384333</v>
       </c>
       <c r="D78">
-        <v>562.5382265462096</v>
+        <v>532.0917264767007</v>
       </c>
       <c r="E78">
-        <v>538.473377360119</v>
+        <v>72.27993503560417</v>
       </c>
       <c r="F78">
-        <v>208.6540945326236</v>
+        <v>1985.664923455211</v>
       </c>
       <c r="G78">
-        <v>85.06431123286339</v>
+        <v>35259.60401756076</v>
       </c>
       <c r="H78">
-        <v>35.89856482647157</v>
+        <v>382.0943993803566</v>
       </c>
       <c r="I78">
-        <v>16.69505242099835</v>
+        <v>562.5382254889126</v>
       </c>
       <c r="J78">
-        <v>282.1781835296006</v>
+        <v>208.6540972692649</v>
       </c>
       <c r="K78">
-        <v>52.10935814556235</v>
+        <v>85.06431218260128</v>
       </c>
       <c r="L78">
-        <v>7.35249194418852</v>
+        <v>35.89856516728821</v>
       </c>
       <c r="M78">
-        <v>0.4113834679842291</v>
+        <v>16.69505254170529</v>
       </c>
       <c r="N78">
-        <v>1091.799459810769</v>
+        <v>282.1781830811012</v>
       </c>
       <c r="O78">
-        <v>139.268689903711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79">
-        <v>2055.872495633653</v>
+        <v>52.10935796986639</v>
+      </c>
+      <c r="P78">
+        <v>7.352491916692908</v>
+      </c>
+      <c r="Q78">
+        <v>0.4113834662370424</v>
+      </c>
+      <c r="R78">
+        <v>0.2731138436417933</v>
+      </c>
+      <c r="S78">
+        <v>0.01739960778913007</v>
+      </c>
+      <c r="T78">
+        <v>16.72807086085302</v>
+      </c>
+      <c r="U78">
+        <v>19.56860600399361</v>
+      </c>
+      <c r="V78">
+        <v>1091.799460942927</v>
+      </c>
+      <c r="W78">
+        <v>139.2686897508306</v>
+      </c>
+      <c r="X78">
+        <v>538.4733774671464</v>
+      </c>
+      <c r="Y78">
+        <v>37.26542620299934</v>
+      </c>
+      <c r="Z78">
+        <v>42.07072829792466</v>
+      </c>
+      <c r="AA78">
+        <v>24.06060486554548</v>
+      </c>
+      <c r="AB78">
+        <v>10.6339414186962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="1">
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>38168.54535964994</v>
+        <v>47968.81818451826</v>
       </c>
       <c r="C79">
-        <v>394.1276792277676</v>
+        <v>7681.877450728911</v>
       </c>
       <c r="D79">
-        <v>573.2881257703301</v>
+        <v>553.5139812100747</v>
       </c>
       <c r="E79">
-        <v>553.4498475680869</v>
+        <v>86.35077283494356</v>
       </c>
       <c r="F79">
-        <v>206.3741294963524</v>
+        <v>2055.872494149072</v>
       </c>
       <c r="G79">
-        <v>86.95052006633104</v>
+        <v>38168.54536010198</v>
       </c>
       <c r="H79">
-        <v>38.7362064425813</v>
+        <v>394.1276782800918</v>
       </c>
       <c r="I79">
-        <v>20.25173502611169</v>
+        <v>573.2881248259608</v>
       </c>
       <c r="J79">
-        <v>241.4224998784769</v>
+        <v>206.3741322888968</v>
       </c>
       <c r="K79">
-        <v>41.88764455366316</v>
+        <v>86.95052115516729</v>
       </c>
       <c r="L79">
-        <v>5.346546790197573</v>
+        <v>38.73620686719721</v>
       </c>
       <c r="M79">
-        <v>0.2711727273017333</v>
+        <v>20.25173520504035</v>
       </c>
       <c r="N79">
-        <v>1015.963110861372</v>
+        <v>241.4224994947897</v>
       </c>
       <c r="O79">
-        <v>136.1074610690781</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80">
-        <v>2126.614791380437</v>
+        <v>41.88764441243153</v>
+      </c>
+      <c r="P79">
+        <v>5.346546770203457</v>
+      </c>
+      <c r="Q79">
+        <v>0.2711727261500356</v>
+      </c>
+      <c r="R79">
+        <v>0.07249060440527838</v>
+      </c>
+      <c r="S79">
+        <v>0.00461825028065262</v>
+      </c>
+      <c r="T79">
+        <v>18.06067390079782</v>
+      </c>
+      <c r="U79">
+        <v>18.28033235871955</v>
+      </c>
+      <c r="V79">
+        <v>1015.96311287702</v>
+      </c>
+      <c r="W79">
+        <v>136.1074610941464</v>
+      </c>
+      <c r="X79">
+        <v>553.4498472677742</v>
+      </c>
+      <c r="Y79">
+        <v>39.63099312017269</v>
+      </c>
+      <c r="Z79">
+        <v>48.14000031708679</v>
+      </c>
+      <c r="AA79">
+        <v>30.72690850341791</v>
+      </c>
+      <c r="AB79">
+        <v>15.92905613686774</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="1">
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>41473.31431442707</v>
+        <v>45021.06838767367</v>
       </c>
       <c r="C80">
-        <v>405.6257826335241</v>
+        <v>7320.739109353166</v>
       </c>
       <c r="D80">
-        <v>582.9150063510639</v>
+        <v>560.9373939668819</v>
       </c>
       <c r="E80">
-        <v>562.0622091887257</v>
+        <v>98.12429998992856</v>
       </c>
       <c r="F80">
-        <v>200.4529859365568</v>
+        <v>2126.614790175571</v>
       </c>
       <c r="G80">
-        <v>86.08149128253477</v>
+        <v>41473.31431504339</v>
       </c>
       <c r="H80">
-        <v>39.5092500404499</v>
+        <v>405.6257817538263</v>
       </c>
       <c r="I80">
-        <v>22.45711516913532</v>
+        <v>582.9150055231197</v>
       </c>
       <c r="J80">
-        <v>204.346809701309</v>
+        <v>200.452988608801</v>
       </c>
       <c r="K80">
-        <v>33.28844304449157</v>
+        <v>86.08149242087485</v>
       </c>
       <c r="L80">
-        <v>3.839043009783573</v>
+        <v>39.5092505278229</v>
       </c>
       <c r="M80">
-        <v>0.1762729706729223</v>
+        <v>22.45711540049811</v>
       </c>
       <c r="N80">
-        <v>940.5504834153328</v>
+        <v>204.3468093765544</v>
       </c>
       <c r="O80">
-        <v>132.3020171793477</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81">
-        <v>2197.126912053829</v>
+        <v>33.28844293225367</v>
+      </c>
+      <c r="P80">
+        <v>3.839042995426966</v>
+      </c>
+      <c r="Q80">
+        <v>0.1762729699242734</v>
+      </c>
+      <c r="R80">
+        <v>0.01904830472377417</v>
+      </c>
+      <c r="S80">
+        <v>0.001213534351910042</v>
+      </c>
+      <c r="T80">
+        <v>18.77064852829766</v>
+      </c>
+      <c r="U80">
+        <v>17.04663430077619</v>
+      </c>
+      <c r="V80">
+        <v>940.550486231152</v>
+      </c>
+      <c r="W80">
+        <v>132.3020173810153</v>
+      </c>
+      <c r="X80">
+        <v>562.0622085616869</v>
+      </c>
+      <c r="Y80">
+        <v>40.80323886687467</v>
+      </c>
+      <c r="Z80">
+        <v>52.13081145804553</v>
+      </c>
+      <c r="AA80">
+        <v>35.96175020533116</v>
+      </c>
+      <c r="AB80">
+        <v>20.86144391589419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="1">
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>45052.22934464757</v>
+        <v>41876.63772233977</v>
       </c>
       <c r="C81">
-        <v>416.5949104845112</v>
+        <v>6911.649349601961</v>
       </c>
       <c r="D81">
-        <v>591.5054424815563</v>
+        <v>556.5732212365243</v>
       </c>
       <c r="E81">
-        <v>564.4121906332814</v>
+        <v>107.1890567275231</v>
       </c>
       <c r="F81">
-        <v>191.9078115137316</v>
+        <v>2197.126911238379</v>
       </c>
       <c r="G81">
-        <v>83.37976354187042</v>
+        <v>45052.22934541223</v>
       </c>
       <c r="H81">
-        <v>38.9244461361767</v>
+        <v>416.5949096926038</v>
       </c>
       <c r="I81">
-        <v>23.33608790551611</v>
+        <v>591.505441769881</v>
       </c>
       <c r="J81">
-        <v>171.2496011121699</v>
+        <v>191.9078139507909</v>
       </c>
       <c r="K81">
-        <v>26.17522742503454</v>
+        <v>83.37976465070557</v>
       </c>
       <c r="L81">
-        <v>2.724374709129642</v>
+        <v>38.9244466469227</v>
       </c>
       <c r="M81">
-        <v>0.1131050735094749</v>
+        <v>23.33608817806719</v>
       </c>
       <c r="N81">
-        <v>866.4570360621451</v>
+        <v>171.2496008400167</v>
       </c>
       <c r="O81">
-        <v>127.9690699740639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82">
-        <v>2266.239753569476</v>
+        <v>26.17522733678011</v>
+      </c>
+      <c r="P81">
+        <v>2.724374698941484</v>
+      </c>
+      <c r="Q81">
+        <v>0.1131050730291064</v>
+      </c>
+      <c r="R81">
+        <v>0.004958868023005856</v>
+      </c>
+      <c r="S81">
+        <v>0.0003159208538382466</v>
+      </c>
+      <c r="T81">
+        <v>18.96740924633415</v>
+      </c>
+      <c r="U81">
+        <v>15.86943209633305</v>
+      </c>
+      <c r="V81">
+        <v>866.4570395266785</v>
+      </c>
+      <c r="W81">
+        <v>127.9690703422937</v>
+      </c>
+      <c r="X81">
+        <v>564.4121897691774</v>
+      </c>
+      <c r="Y81">
+        <v>40.90745570063405</v>
+      </c>
+      <c r="Z81">
+        <v>54.05943981231997</v>
+      </c>
+      <c r="AA81">
+        <v>39.32955801130185</v>
+      </c>
+      <c r="AB81">
+        <v>24.70675131180839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="1">
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>48266.871401344</v>
+        <v>39054.853178315</v>
       </c>
       <c r="C82">
-        <v>427.0461364994451</v>
+        <v>6539.255026983334</v>
       </c>
       <c r="D82">
-        <v>599.1460329145929</v>
+        <v>547.2730628556178</v>
       </c>
       <c r="E82">
-        <v>566.5532672464213</v>
+        <v>114.6486011962273</v>
       </c>
       <c r="F82">
-        <v>183.8031503555526</v>
+        <v>2266.239753233287</v>
       </c>
       <c r="G82">
-        <v>80.31436134232875</v>
+        <v>48266.87140220525</v>
       </c>
       <c r="H82">
-        <v>37.87303281163626</v>
+        <v>427.0461358114804</v>
       </c>
       <c r="I82">
-        <v>23.45439757161095</v>
+        <v>599.1460323155152</v>
       </c>
       <c r="J82">
-        <v>143.9342321274522</v>
+        <v>183.8031525193727</v>
       </c>
       <c r="K82">
-        <v>20.64639207736678</v>
+        <v>80.3143623770343</v>
       </c>
       <c r="L82">
-        <v>1.940053683068869</v>
+        <v>37.87303331449417</v>
       </c>
       <c r="M82">
-        <v>0.07285183298967159</v>
+        <v>23.45439786799683</v>
       </c>
       <c r="N82">
-        <v>803.5812490820467</v>
+        <v>143.9342318987098</v>
       </c>
       <c r="O82">
-        <v>124.6518425116728</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83">
-        <v>2342.534811833387</v>
+        <v>20.6463920077538</v>
+      </c>
+      <c r="P82">
+        <v>1.940053675813783</v>
+      </c>
+      <c r="Q82">
+        <v>0.07285183268026256</v>
+      </c>
+      <c r="R82">
+        <v>0.001294492455236662</v>
+      </c>
+      <c r="S82">
+        <v>8.246986204275746E-05</v>
+      </c>
+      <c r="T82">
+        <v>18.95466000226185</v>
+      </c>
+      <c r="U82">
+        <v>14.91078426956567</v>
+      </c>
+      <c r="V82">
+        <v>803.5812530470963</v>
+      </c>
+      <c r="W82">
+        <v>124.6518430340433</v>
+      </c>
+      <c r="X82">
+        <v>566.5532662258896</v>
+      </c>
+      <c r="Y82">
+        <v>40.53997058791612</v>
+      </c>
+      <c r="Z82">
+        <v>54.7673011607234</v>
+      </c>
+      <c r="AA82">
+        <v>41.30251700238647</v>
+      </c>
+      <c r="AB82">
+        <v>27.36535929816991</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="1">
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>51810.4052445628</v>
+        <v>35972.61248365139</v>
       </c>
       <c r="C83">
-        <v>437.1088069530031</v>
+        <v>6132.025077013292</v>
       </c>
       <c r="D83">
-        <v>605.99709026317</v>
+        <v>528.7404129273193</v>
       </c>
       <c r="E83">
-        <v>560.9837700351555</v>
+        <v>118.861905016046</v>
       </c>
       <c r="F83">
-        <v>173.3048226174539</v>
+        <v>2342.534812112282</v>
       </c>
       <c r="G83">
-        <v>76.17194610917034</v>
+        <v>51810.40524547976</v>
       </c>
       <c r="H83">
-        <v>36.10722285732038</v>
+        <v>437.1088063822178</v>
       </c>
       <c r="I83">
-        <v>22.8152360621404</v>
+        <v>605.9970897710526</v>
       </c>
       <c r="J83">
-        <v>117.1805167356094</v>
+        <v>173.3048244567196</v>
       </c>
       <c r="K83">
-        <v>15.68585356888538</v>
+        <v>76.17194703130437</v>
       </c>
       <c r="L83">
-        <v>1.261980185113039</v>
+        <v>36.10722332406656</v>
       </c>
       <c r="M83">
-        <v>0.0460316911664521</v>
+        <v>22.8152363601567</v>
       </c>
       <c r="N83">
-        <v>738.4780771872183</v>
+        <v>117.1805165493845</v>
       </c>
       <c r="O83">
-        <v>120.2629342913571</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84">
-        <v>2412.590506367511</v>
+        <v>15.68585351599774</v>
+      </c>
+      <c r="P83">
+        <v>1.261980180393698</v>
+      </c>
+      <c r="Q83">
+        <v>0.04603169097095091</v>
+      </c>
+      <c r="R83">
+        <v>0.0003337760264970923</v>
+      </c>
+      <c r="S83">
+        <v>2.126428991303971E-05</v>
+      </c>
+      <c r="T83">
+        <v>18.49142262258918</v>
+      </c>
+      <c r="U83">
+        <v>13.89717971097774</v>
+      </c>
+      <c r="V83">
+        <v>738.4780814395942</v>
+      </c>
+      <c r="W83">
+        <v>120.2629349411646</v>
+      </c>
+      <c r="X83">
+        <v>560.9837689422578</v>
+      </c>
+      <c r="Y83">
+        <v>37.77035990070977</v>
+      </c>
+      <c r="Z83">
+        <v>51.90109077474396</v>
+      </c>
+      <c r="AA83">
+        <v>38.82815122524791</v>
+      </c>
+      <c r="AB83">
+        <v>28.52720993995558</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="1">
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>55087.90409096416</v>
+        <v>33133.62472496644</v>
       </c>
       <c r="C84">
-        <v>446.7301950527324</v>
+        <v>5746.543773984201</v>
       </c>
       <c r="D84">
-        <v>612.095601129887</v>
+        <v>507.621229433521</v>
       </c>
       <c r="E84">
-        <v>554.0573919991954</v>
+        <v>121.3603554260803</v>
       </c>
       <c r="F84">
-        <v>163.3482330779304</v>
+        <v>2412.590507268424</v>
       </c>
       <c r="G84">
-        <v>71.94790318197124</v>
+        <v>55087.90409187137</v>
       </c>
       <c r="H84">
-        <v>34.26462246098967</v>
+        <v>446.7301946073111</v>
       </c>
       <c r="I84">
-        <v>21.90000341936662</v>
+        <v>612.0956007358474</v>
       </c>
       <c r="J84">
-        <v>95.39963059411264</v>
+        <v>163.3482346138146</v>
       </c>
       <c r="K84">
-        <v>11.91714277547977</v>
+        <v>71.94790397793044</v>
       </c>
       <c r="L84">
-        <v>0.8209020201434323</v>
+        <v>34.26462287891091</v>
       </c>
       <c r="M84">
-        <v>0.02908528865627896</v>
+        <v>21.90000370347112</v>
       </c>
       <c r="N84">
-        <v>680.6356540038582</v>
+        <v>95.39963044250229</v>
       </c>
       <c r="O84">
-        <v>116.3082935907764</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85">
-        <v>2477.143217987471</v>
+        <v>11.91714273529901</v>
+      </c>
+      <c r="P84">
+        <v>0.8209020170735609</v>
+      </c>
+      <c r="Q84">
+        <v>0.02908528853275084</v>
+      </c>
+      <c r="R84">
+        <v>8.606186572467897E-05</v>
+      </c>
+      <c r="S84">
+        <v>5.482851726748E-06</v>
+      </c>
+      <c r="T84">
+        <v>17.90894363197635</v>
+      </c>
+      <c r="U84">
+        <v>13.00029903136329</v>
+      </c>
+      <c r="V84">
+        <v>680.6356583813922</v>
+      </c>
+      <c r="W84">
+        <v>116.3082943435495</v>
+      </c>
+      <c r="X84">
+        <v>554.0573908989033</v>
+      </c>
+      <c r="Y84">
+        <v>35.3201212122092</v>
+      </c>
+      <c r="Z84">
+        <v>49.19959754834436</v>
+      </c>
+      <c r="AA84">
+        <v>36.71418891197064</v>
+      </c>
+      <c r="AB84">
+        <v>28.7574105447462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="1">
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>58119.37268553777</v>
+        <v>30518.69218322261</v>
       </c>
       <c r="C85">
-        <v>455.9647495267125</v>
+        <v>5382.086469190012</v>
       </c>
       <c r="D85">
-        <v>617.491759766634</v>
+        <v>484.9140265798816</v>
       </c>
       <c r="E85">
-        <v>546.1989726948761</v>
+        <v>122.351833842222</v>
       </c>
       <c r="F85">
-        <v>153.8072300717682</v>
+        <v>2477.143219494255</v>
       </c>
       <c r="G85">
-        <v>67.85772133624701</v>
+        <v>58119.37268637407</v>
       </c>
       <c r="H85">
-        <v>32.38129823824496</v>
+        <v>455.9647492111031</v>
       </c>
       <c r="I85">
-        <v>20.863821302009</v>
+        <v>617.4917594595389</v>
       </c>
       <c r="J85">
-        <v>77.66725712009901</v>
+        <v>153.8072313247125</v>
       </c>
       <c r="K85">
-        <v>9.053909072113147</v>
+        <v>67.85772200829807</v>
       </c>
       <c r="L85">
-        <v>0.5339862975861279</v>
+        <v>32.38129860056343</v>
       </c>
       <c r="M85">
-        <v>0.01837764363599139</v>
+        <v>20.86382156203648</v>
       </c>
       <c r="N85">
-        <v>628.7911230936729</v>
+        <v>77.66725699666925</v>
       </c>
       <c r="O85">
-        <v>112.6625765813961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86">
-        <v>2536.738976189344</v>
+        <v>9.053909041586284</v>
+      </c>
+      <c r="P85">
+        <v>0.5339862955892157</v>
+      </c>
+      <c r="Q85">
+        <v>0.01837764355793971</v>
+      </c>
+      <c r="R85">
+        <v>2.219046349656631E-05</v>
+      </c>
+      <c r="S85">
+        <v>1.4137158202997E-06</v>
+      </c>
+      <c r="T85">
+        <v>17.2318136203642</v>
+      </c>
+      <c r="U85">
+        <v>12.13170724316912</v>
+      </c>
+      <c r="V85">
+        <v>628.7911274547848</v>
+      </c>
+      <c r="W85">
+        <v>112.6625774109058</v>
+      </c>
+      <c r="X85">
+        <v>546.1989716445332</v>
+      </c>
+      <c r="Y85">
+        <v>33.11014043976055</v>
+      </c>
+      <c r="Z85">
+        <v>46.57595800716032</v>
+      </c>
+      <c r="AA85">
+        <v>34.76728523292341</v>
+      </c>
+      <c r="AB85">
+        <v>28.32986449534662</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="1">
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>60923.29086359528</v>
+        <v>28110.13223894223</v>
       </c>
       <c r="C86">
-        <v>464.9065216794274</v>
+        <v>5037.891037152825</v>
       </c>
       <c r="D86">
-        <v>622.7119207400071</v>
+        <v>461.3645617758926</v>
       </c>
       <c r="E86">
-        <v>535.4701120852094</v>
+        <v>122.0521610333426</v>
       </c>
       <c r="F86">
-        <v>145.1549118316237</v>
+        <v>2536.738978266009</v>
       </c>
       <c r="G86">
-        <v>63.92617572498114</v>
+        <v>60923.29086430569</v>
       </c>
       <c r="H86">
-        <v>30.54723727439078</v>
+        <v>464.9065214951025</v>
       </c>
       <c r="I86">
-        <v>19.77181756021702</v>
+        <v>622.7119205137046</v>
       </c>
       <c r="J86">
-        <v>63.23088202876479</v>
+        <v>145.1549128292295</v>
       </c>
       <c r="K86">
-        <v>6.87860093904032</v>
+        <v>63.92617627969747</v>
       </c>
       <c r="L86">
-        <v>0.3473512782438023</v>
+        <v>30.54723758130066</v>
       </c>
       <c r="M86">
-        <v>0.01161197984323885</v>
+        <v>19.77181779013387</v>
       </c>
       <c r="N86">
-        <v>582.6951784822893</v>
+        <v>63.23088192827746</v>
       </c>
       <c r="O86">
-        <v>109.1332176043121</v>
+        <v>6.878600915847895</v>
+      </c>
+      <c r="P86">
+        <v>0.3473512769448364</v>
+      </c>
+      <c r="Q86">
+        <v>0.01161197979392162</v>
+      </c>
+      <c r="R86">
+        <v>5.721659251122152E-06</v>
+      </c>
+      <c r="S86">
+        <v>3.645169558052338E-07</v>
+      </c>
+      <c r="T86">
+        <v>16.49132572696776</v>
+      </c>
+      <c r="U86">
+        <v>11.76302849961206</v>
+      </c>
+      <c r="V86">
+        <v>582.6951827190874</v>
+      </c>
+      <c r="W86">
+        <v>109.1332184830688</v>
+      </c>
+      <c r="X86">
+        <v>535.470111103469</v>
+      </c>
+      <c r="Y86">
+        <v>31.08141016877245</v>
+      </c>
+      <c r="Z86">
+        <v>44.03086508084829</v>
+      </c>
+      <c r="AA86">
+        <v>32.89565562267934</v>
+      </c>
+      <c r="AB86">
+        <v>27.4823224431109</v>
       </c>
     </row>
   </sheetData>
